--- a/0_0_Data/2_Processed_Data/1_GDP_series/yoy_rt_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_GDP_series/yoy_rt_GDP_data.xlsx
@@ -1,40 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>﻿""</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +60,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6824 +379,5753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>﻿""</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n">
+    <row r="1" spans="1:82">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>38484</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="2">
         <v>38575</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="2">
         <v>38671</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="2">
         <v>38762</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="2">
         <v>38848</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="2">
         <v>38943</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="2">
         <v>39035</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I1" s="2">
         <v>39126</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J1" s="2">
         <v>39217</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K1" s="2">
         <v>39308</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L1" s="2">
         <v>39400</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M1" s="2">
         <v>39492</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N1" s="2">
         <v>39583</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="O1" s="2">
         <v>39674</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="P1" s="2">
         <v>39765</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q1" s="2">
         <v>39857</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="R1" s="2">
         <v>39948</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="S1" s="2">
         <v>40038</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="T1" s="2">
         <v>40130</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="U1" s="2">
         <v>40221</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="V1" s="2">
         <v>40310</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="W1" s="2">
         <v>40403</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="X1" s="2">
         <v>40494</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Y1" s="2">
         <v>40589</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="Z1" s="2">
         <v>40676</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AA1" s="2">
         <v>40771</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AB1" s="2">
         <v>40862</v>
       </c>
-      <c r="AC1" s="2" t="n">
+      <c r="AC1" s="2">
         <v>40954</v>
       </c>
-      <c r="AD1" s="2" t="n">
+      <c r="AD1" s="2">
         <v>41044</v>
       </c>
-      <c r="AE1" s="2" t="n">
+      <c r="AE1" s="2">
         <v>41135</v>
       </c>
-      <c r="AF1" s="2" t="n">
+      <c r="AF1" s="2">
         <v>41228</v>
       </c>
-      <c r="AG1" s="2" t="n">
+      <c r="AG1" s="2">
         <v>41319</v>
       </c>
-      <c r="AH1" s="2" t="n">
+      <c r="AH1" s="2">
         <v>41409</v>
       </c>
-      <c r="AI1" s="2" t="n">
+      <c r="AI1" s="2">
         <v>41500</v>
       </c>
-      <c r="AJ1" s="2" t="n">
+      <c r="AJ1" s="2">
         <v>41592</v>
       </c>
-      <c r="AK1" s="2" t="n">
+      <c r="AK1" s="2">
         <v>41684</v>
       </c>
-      <c r="AL1" s="2" t="n">
+      <c r="AL1" s="2">
         <v>41774</v>
       </c>
-      <c r="AM1" s="2" t="n">
+      <c r="AM1" s="2">
         <v>41865</v>
       </c>
-      <c r="AN1" s="2" t="n">
+      <c r="AN1" s="2">
         <v>41957</v>
       </c>
-      <c r="AO1" s="2" t="n">
+      <c r="AO1" s="2">
         <v>42048</v>
       </c>
-      <c r="AP1" s="2" t="n">
+      <c r="AP1" s="2">
         <v>42137</v>
       </c>
-      <c r="AQ1" s="2" t="n">
+      <c r="AQ1" s="2">
         <v>42230</v>
       </c>
-      <c r="AR1" s="2" t="n">
+      <c r="AR1" s="2">
         <v>42321</v>
       </c>
-      <c r="AS1" s="2" t="n">
+      <c r="AS1" s="2">
         <v>42412</v>
       </c>
-      <c r="AT1" s="2" t="n">
+      <c r="AT1" s="2">
         <v>42503</v>
       </c>
-      <c r="AU1" s="2" t="n">
+      <c r="AU1" s="2">
         <v>42594</v>
       </c>
-      <c r="AV1" s="2" t="n">
+      <c r="AV1" s="2">
         <v>42689</v>
       </c>
-      <c r="AW1" s="2" t="n">
+      <c r="AW1" s="2">
         <v>42780</v>
       </c>
-      <c r="AX1" s="2" t="n">
+      <c r="AX1" s="2">
         <v>42867</v>
       </c>
-      <c r="AY1" s="2" t="n">
+      <c r="AY1" s="2">
         <v>42962</v>
       </c>
-      <c r="AZ1" s="2" t="n">
+      <c r="AZ1" s="2">
         <v>43053</v>
       </c>
-      <c r="BA1" s="2" t="n">
+      <c r="BA1" s="2">
         <v>43145</v>
       </c>
-      <c r="BB1" s="2" t="n">
+      <c r="BB1" s="2">
         <v>43235</v>
       </c>
-      <c r="BC1" s="2" t="n">
+      <c r="BC1" s="2">
         <v>43326</v>
       </c>
-      <c r="BD1" s="2" t="n">
+      <c r="BD1" s="2">
         <v>43418</v>
       </c>
-      <c r="BE1" s="2" t="n">
+      <c r="BE1" s="2">
         <v>43510</v>
       </c>
-      <c r="BF1" s="2" t="n">
+      <c r="BF1" s="2">
         <v>43600</v>
       </c>
-      <c r="BG1" s="2" t="n">
+      <c r="BG1" s="2">
         <v>43691</v>
       </c>
-      <c r="BH1" s="2" t="n">
+      <c r="BH1" s="2">
         <v>43783</v>
       </c>
-      <c r="BI1" s="2" t="n">
+      <c r="BI1" s="2">
         <v>43875</v>
       </c>
-      <c r="BJ1" s="2" t="n">
+      <c r="BJ1" s="2">
         <v>43966</v>
       </c>
-      <c r="BK1" s="2" t="n">
+      <c r="BK1" s="2">
         <v>44068</v>
       </c>
-      <c r="BL1" s="2" t="n">
+      <c r="BL1" s="2">
         <v>44159</v>
       </c>
-      <c r="BM1" s="2" t="n">
+      <c r="BM1" s="2">
         <v>44251</v>
       </c>
-      <c r="BN1" s="2" t="n">
+      <c r="BN1" s="2">
         <v>44341</v>
       </c>
-      <c r="BO1" s="2" t="n">
+      <c r="BO1" s="2">
         <v>44432</v>
       </c>
-      <c r="BP1" s="2" t="n">
+      <c r="BP1" s="2">
         <v>44525</v>
       </c>
-      <c r="BQ1" s="2" t="n">
+      <c r="BQ1" s="2">
         <v>44617</v>
       </c>
-      <c r="BR1" s="2" t="n">
+      <c r="BR1" s="2">
         <v>44706</v>
       </c>
-      <c r="BS1" s="2" t="n">
+      <c r="BS1" s="2">
         <v>44798</v>
       </c>
-      <c r="BT1" s="2" t="n">
+      <c r="BT1" s="2">
         <v>44890</v>
       </c>
-      <c r="BU1" s="2" t="n">
+      <c r="BU1" s="2">
         <v>44981</v>
       </c>
-      <c r="BV1" s="2" t="n">
+      <c r="BV1" s="2">
         <v>45071</v>
       </c>
-      <c r="BW1" s="2" t="n">
+      <c r="BW1" s="2">
         <v>45163</v>
       </c>
-      <c r="BX1" s="2" t="n">
+      <c r="BX1" s="2">
         <v>45254</v>
       </c>
-      <c r="BY1" s="2" t="n">
+      <c r="BY1" s="2">
         <v>45345</v>
       </c>
-      <c r="BZ1" s="2" t="n">
+      <c r="BZ1" s="2">
         <v>45436</v>
       </c>
-      <c r="CA1" s="2" t="n">
+      <c r="CA1" s="2">
         <v>45534</v>
       </c>
-      <c r="CB1" s="2" t="n">
+      <c r="CB1" s="2">
         <v>45618</v>
       </c>
-      <c r="CC1" s="2" t="n">
+      <c r="CC1" s="2">
         <v>45713</v>
       </c>
-      <c r="CD1" s="2" t="n">
+      <c r="CD1" s="2">
         <v>45800</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:82">
+      <c r="A2" s="2">
         <v>33603</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:82">
+      <c r="A3" s="2">
         <v>33969</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
-      <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
-      <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:82">
+      <c r="A4" s="2">
         <v>34334</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-0.8088572739789357</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-0.8060121045234125</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-0.8060121045234125</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-0.8060121045234125</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-0.8060121045234125</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-0.7916021338840062</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-0.7916021338840062</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-0.7916021338840062</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>-0.7916021338840062</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>-0.7973841211564747</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>-0.7973841211564747</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>-0.7973841211564747</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>-0.7973841211564747</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>-0.7974298663301127</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>-0.7974298663301127</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>-0.7974298663301127</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>-0.7974298663301127</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>-0.8115626165008161</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>-0.8115626165008161</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>-0.8115626165008161</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>-0.8115626165008161</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>-0.8115160726063442</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>-0.8058271916492221</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>-0.8058271916492221</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>-0.8115160726063442</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>-1.011868311317188</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>-1.011868311317188</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>-1.011868311317188</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>-1.011868311317188</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>-1.011809301647459</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>-1.011809301647459</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>-1.011809301647459</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>-1.011809301647459</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>-1.014725178597464</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>-1.014725178597464</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>-1.014725178597464</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>-1.014725178597464</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>-0.9809399639908123</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>-0.9809399639908123</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>-0.9809399639908123</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>-0.9809399639908123</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>-0.9788992821405329</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>-0.9788992821405329</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>-0.9788992821405329</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>-0.9788992821405329</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>-0.9850532923153521</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>-0.9850532923153521</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>-0.9850532923153521</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>-0.9850532923153521</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>-0.9849614715386368</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>-0.9849614715386368</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>-0.9849614715386368</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>-0.9849614715386368</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>-0.9850226834876463</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>-0.9850226834876463</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>-0.9850226834876463</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>-0.9850226834876463</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>-0.9937888198757849</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>-0.9937888198757849</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>-0.9937888198757849</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>-0.9937888198757849</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>-0.9980908999564386</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>-0.9980908999564386</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>-0.9980908999564386</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>-0.9980908999564386</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>-0.9946416610850828</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>-0.9946416610850828</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>-0.9946416610850828</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>-0.9946416610850828</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>-0.9945417406154844</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>-0.9945417406154844</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>-0.9945417406154844</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>-0.9945417406154844</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>-0.9945084382534275</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>-0.9945084382534275</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>-0.9945084382534275</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>-0.9945084382534275</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>-0.9914767785702105</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>-0.9914767785702105</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>-0.9914767785702105</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>-0.9914767785702105</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:82">
+      <c r="A5" s="2">
         <v>34699</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.709502053091239</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2.709502053091217</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.709502053091217</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2.709502053091217</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2.709502053091217</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>2.720439433362265</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2.720439433362265</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>2.720439433362265</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>2.720439433362265</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>2.723645405655439</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>2.723645405655439</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>2.723645405655439</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>2.723645405655439</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>2.694887809391644</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>2.694887809391644</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>2.694887809391644</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>2.694887809391644</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>2.691684977448827</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>2.691684977448827</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>2.691684977448827</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>2.691684977448827</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>2.691529343740973</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>2.688638334778792</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>2.688638334778792</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>2.691529343740973</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>2.530489601131225</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>2.530489601131225</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>2.530489601131225</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>2.530489601131225</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>2.533286202427232</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>2.533286202427232</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>2.533286202427232</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>2.533286202427232</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>2.533360827171793</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>2.533360827171793</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>2.533360827171793</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>2.533360827171793</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>2.52366919556084</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>2.52366919556084</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>2.52366919556084</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>2.52366919556084</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>2.52636203866432</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>2.52636203866432</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>2.52636203866432</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>2.52636203866432</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>2.535777052473032</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>2.535777052473032</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>2.535777052473032</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>2.535777052473032</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>2.532400288699943</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>2.532400288699943</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>2.532400288699943</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>2.532400288699943</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>2.53255923426956</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>2.53255923426956</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>2.53255923426956</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>2.53255923426956</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>2.465326053782757</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>2.465326053782757</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>2.465326053782757</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>2.465326053782757</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>2.473020061571773</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>2.473020061571773</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>2.473020061571773</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>2.473020061571773</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>2.469302844772181</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>2.469302844772181</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>2.469302844772181</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>2.469302844772181</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>2.462287762970994</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>2.462287762970994</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>2.462287762970994</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>2.462287762970994</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>2.472350931782041</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>2.472350931782041</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>2.472350931782041</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>2.472350931782041</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>2.656359803232644</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>2.656359803232644</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>2.656359803232644</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>2.656359803232644</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:82">
+      <c r="A6" s="2">
         <v>35064</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.953883836819692</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.953883836819714</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.953883836819714</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1.953883836819714</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.953883836819714</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.970110607638387</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1.970110607638387</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1.970110607638387</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>1.970110607638387</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1.981535690159864</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>1.981535690159864</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1.981535690159864</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>1.981535690159864</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>1.985020835679685</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>1.985020835679685</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>1.985020835679685</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>1.985020835679685</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>1.976406993440127</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>1.976406993440127</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>1.976406993440127</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>1.976406993440127</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>1.976295712395459</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>1.976351351351324</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>1.976351351351324</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>1.976295712395459</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>1.772733802614557</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>1.772733802614557</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>1.772733802614557</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>1.772733802614557</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>1.772581015858421</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>1.772581015858421</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>1.772581015858421</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>1.772581015858421</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>1.772631941850777</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>1.772631941850777</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>1.772631941850777</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>1.772631941850777</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>1.776595419380489</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>1.776595419380489</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>1.776595419380489</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>1.776595419380489</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>1.815176466987078</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>1.815176466987078</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>1.815176466987078</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>1.815176466987078</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>1.811949069539653</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>1.811949069539653</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>1.811949069539653</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>1.811949069539653</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>1.805717083919944</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>1.805717083919944</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>1.805717083919944</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>1.805717083919944</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>1.808888344760029</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>1.808888344760029</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>1.808888344760029</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>1.808888344760029</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>1.611728885358765</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>1.611728885358765</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>1.611728885358765</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>1.611728885358765</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>1.611092769891065</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>1.611092769891065</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>1.611092769891065</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>1.611092769891065</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>1.60763212623376</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>1.60763212623376</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>1.60763212623376</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>1.60763212623376</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>1.610880042252605</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>1.610880042252605</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>1.610880042252605</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>1.610880042252605</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>1.600765727110698</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>1.600765727110698</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>1.600765727110698</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="BZ6">
         <v>1.600765727110698</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
         <v>1.577902519167562</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6">
         <v>1.577902519167562</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CC6">
         <v>1.577902519167562</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CD6">
         <v>1.577902519167562</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:82">
+      <c r="A7" s="2">
         <v>35430</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.038301162565936</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.038301162565891</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.038301162565891</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1.038301162565891</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.038301162565891</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.9881041097403065</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.9881041097403065</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.9881041097403065</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.9881041097403065</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.9908368293221503</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.9908368293221503</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>0.9908368293221503</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>0.9908368293221503</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1.021506860660915</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>1.021506860660915</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>1.021506860660915</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>1.021506860660915</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>1.035311007426643</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>1.035311007426643</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>1.035311007426643</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>1.035311007426643</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>1.038014521160591</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>1.035282425045536</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>1.035282425045536</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>1.038014521160591</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>0.8243464513578935</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>0.8243464513578935</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>0.8243464513578935</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>0.8243464513578935</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>0.821453775582226</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>0.821453775582226</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>0.821453775582226</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>0.821453775582226</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>0.8158310749774023</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>0.8158310749774023</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>0.8158310749774023</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>0.8158310749774023</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>0.8142050234346554</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>0.8142050234346554</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>0.8142050234346554</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>0.8142050234346554</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>0.8598400577235044</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>0.8598400577235044</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>0.8598400577235044</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>0.8598400577235044</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>0.8567821067821058</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>0.8567821067821058</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>0.8567821067821058</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>0.8567821067821058</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>0.8627946127946151</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>0.8627946127946151</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>0.8627946127946151</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>0.8627946127946151</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>0.8628205513633525</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>0.8628205513633525</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>0.8628205513633525</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>0.8628205513633525</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>0.8500797967625484</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>0.8500797967625484</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>0.8500797967625484</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>0.8500797967625484</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>0.8512573916433563</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>0.8512573916433563</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>0.8512573916433563</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>0.8512573916433563</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>0.8479532163742753</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>0.8479532163742753</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>0.8479532163742753</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>0.8479532163742753</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>0.8511467740887735</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>0.8511467740887735</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>0.8511467740887735</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>0.8511467740887735</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>0.854367670467493</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>0.854367670467493</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>0.854367670467493</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="BZ7">
         <v>0.854367670467493</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CA7">
         <v>1.06479765474945</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CB7">
         <v>1.06479765474945</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CC7">
         <v>1.06479765474945</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CD7">
         <v>1.06479765474945</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:82">
+      <c r="A8" s="2">
         <v>35795</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.899477985186815</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.899477985186815</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.899477985186815</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1.899477985186815</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.899477985186815</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.858482057448962</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.858482057448962</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1.858482057448962</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1.858482057448962</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>1.850181738678902</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>1.850181738678902</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1.850181738678902</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1.850181738678902</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1.85564756360852</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>1.85564756360852</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>1.85564756360852</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>1.85564756360852</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>1.847196414908736</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>1.847196414908736</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>1.847196414908736</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>1.847196414908736</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>1.84431268613896</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>1.852610869743421</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>1.852610869743421</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>1.847045001229541</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1.786414291314364</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>1.786414291314364</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>1.786414291314364</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>1.786414291314364</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>1.777914660096314</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>1.777914660096314</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>1.777914660096314</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>1.777914660096314</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>1.792064514322522</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>1.792064514322522</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>1.792064514322522</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>1.792064514322522</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>1.895395619132767</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>1.895395619132767</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>1.895395619132767</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>1.895395619132767</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>1.901752712531302</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>1.901752712531302</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>1.901752712531302</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>1.901752712531302</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>1.9016960267072</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>1.9016960267072</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>1.9016960267072</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>1.9016960267072</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>1.910524276474623</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>1.910524276474623</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>1.910524276474623</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>1.910524276474623</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>1.907600596125203</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>1.907600596125203</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>1.907600596125203</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>1.907600596125203</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>1.85699522025573</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>1.85699522025573</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>1.85699522025573</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>1.85699522025573</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>1.858891752577341</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>1.858891752577341</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>1.858891752577341</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>1.858891752577341</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>1.85883186753002</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>1.85883186753002</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>1.85883186753002</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>1.85883186753002</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>1.865094704290682</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>1.865094704290682</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>1.865094704290682</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>1.865094704290682</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>1.858532500161036</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>1.858532500161036</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>1.858532500161036</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="BZ8">
         <v>1.858532500161036</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CA8">
         <v>1.937118661020909</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CB8">
         <v>1.937118661020909</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CC8">
         <v>1.937118661020909</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CD8">
         <v>1.937118661020909</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:82">
+      <c r="A9" s="2">
         <v>36160</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.783606909129909</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.786289024782728</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1.786289024782728</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1.786289024782728</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.786289024782728</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.837988676916491</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1.837988676916491</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.837988676916491</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>1.837988676916491</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1.829988193624543</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>1.829988193624543</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>1.829988193624543</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>1.829988193624543</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1.824523745639905</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>1.824523745639905</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>1.824523745639905</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>1.824523745639905</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>1.821742863275366</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>1.821742863275366</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>1.821742863275366</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>1.821742863275366</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>1.824327949777338</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>1.821596244131474</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>1.821596244131474</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>1.821596244131474</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>1.650528169014143</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>1.650528169014143</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>1.650528169014143</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>1.650528169014143</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>1.664328354103084</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>1.664328354103084</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>1.664328354103084</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>1.664328354103084</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>1.65598437542982</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>1.65598437542982</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>1.65598437542982</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>1.65598437542982</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>1.746073528121439</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>1.746073528121439</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>1.746073528121439</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>1.746073528121439</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>1.77558064704848</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>1.77558064704848</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>1.77558064704848</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>1.77558064704848</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>1.77552870974349</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>1.77552870974349</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>1.77552870974349</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>1.77552870974349</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>1.766495086569941</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>1.766495086569941</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>1.766495086569941</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>1.766495086569941</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>1.769523252412997</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>1.769523252412997</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>1.769523252412997</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>1.769523252412997</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>1.80094486191702</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>1.80094486191702</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>1.80094486191702</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>1.80094486191702</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>1.799664737324824</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>1.799664737324824</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>1.799664737324824</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>1.799664737324824</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>1.802770573723844</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>1.802770573723844</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>1.802770573723844</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>1.802770573723844</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>1.792998766720433</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>1.792998766720433</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>1.792998766720433</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BV9">
         <v>1.792998766720433</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
         <v>1.802485532681919</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BX9">
         <v>1.802485532681919</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9">
         <v>1.802485532681919</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="BZ9">
         <v>1.802485532681919</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CA9">
         <v>1.883953686138562</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CB9">
         <v>1.883953686138562</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CC9">
         <v>1.883953686138562</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CD9">
         <v>1.883953686138562</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:82">
+      <c r="A10" s="2">
         <v>36525</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.865661809270347</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.860342555994721</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1.860342555994721</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1.860342555994721</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.860342555994721</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.881224640354118</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1.881224640354118</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>1.881224640354118</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>1.881224640354118</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>1.881422924901188</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>1.881422924901188</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>1.881422924901188</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>1.881422924901188</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>1.881422924901166</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>1.881422924901166</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>1.881422924901166</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1.881422924901166</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>1.881373349845861</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>1.881373349845861</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>1.881373349845861</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>1.881373349845861</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>1.878589871950243</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>1.878589871950265</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>1.878589871950265</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>1.878589871950243</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>1.750920112578469</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>1.750920112578469</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>1.750920112578469</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>1.750920112578469</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>1.742612836887081</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>1.742612836887081</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>1.742612836887081</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>1.742612836887081</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>1.742659991882012</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>1.742659991882012</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>1.742659991882012</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>1.742659991882012</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>1.856962170863485</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>1.856962170863485</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>1.856962170863485</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>1.856962170863485</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>1.845198746874344</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>1.845198746874344</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>1.845198746874344</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>1.845198746874344</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>1.848019773524157</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>1.848019773524157</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>1.848019773524157</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>1.848019773524157</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>1.850787446832958</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>1.850787446832958</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>1.850787446832958</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>1.850787446832958</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>1.84221870958472</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>1.839344733438719</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>1.839344733438719</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>1.839344733438719</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>1.747282524060156</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>1.747282524060156</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>1.747282524060156</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>1.747282524060156</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>1.746100789162996</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>1.746100789162996</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>1.746100789162996</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>1.746100789162996</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>1.74909904312166</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>1.74909904312166</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>1.74909904312166</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>1.74909904312166</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>1.748990369680037</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>1.748990369680037</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>1.748990369680037</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BV10">
         <v>1.748990369680037</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
         <v>1.748827384835194</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BX10">
         <v>1.748827384835194</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10">
         <v>1.748827384835194</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="BZ10">
         <v>1.748827384835194</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CA10">
         <v>1.983948635634025</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CB10">
         <v>1.983948635634025</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CC10">
         <v>1.983948635634025</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CD10">
         <v>1.983948635634025</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:82">
+      <c r="A11" s="2">
         <v>36891</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3.448275862068995</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.45095198675498</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3.45095198675498</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>3.45095198675498</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3.45095198675498</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3.457639391745126</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>3.457639391745126</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>3.457639391745126</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>3.457639391745126</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>3.476101800124165</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>3.476101800124165</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>3.476101800124165</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>3.476101800124165</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>3.452824332712612</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>3.452824332712612</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>3.452824332712612</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>3.452824332712612</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>3.470839260312908</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>3.470839260312908</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>3.470839260312908</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>3.470839260312908</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>3.468073551090067</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>3.46807355109009</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>3.46807355109009</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>3.468073551090067</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>3.295212765957434</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>3.295212765957434</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>3.295212765957434</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>3.295212765957434</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>3.292640761722399</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>3.217248969915887</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>3.217248969915887</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>3.217248969915887</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>3.217248969915887</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>3.194581628333548</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>3.194581628333548</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>3.194581628333548</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>3.194581628333548</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>3.188757513333518</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>3.188757513333518</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>3.188757513333518</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>3.188757513333518</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>3.185665914221225</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>3.185665914221225</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>3.185665914221225</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>3.185665914221225</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>3.191669488655591</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>3.19458162833357</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>3.19458162833357</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>3.19458162833357</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>3.137627035631185</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>3.137627035631185</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>3.137627035631185</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>3.137627035631185</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>3.139122999877841</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>3.139122999877841</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>3.139122999877841</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>3.139122999877841</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>3.132728771640525</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>3.132728771640525</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>3.132728771640525</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>3.132728771640525</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>3.132537477482966</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>3.132537477482966</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BU11">
         <v>3.132537477482966</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="BV11">
         <v>3.132537477482966</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BW11">
         <v>3.135303455855376</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="BX11">
         <v>3.135303455855376</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="BY11">
         <v>3.135303455855376</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="BZ11">
         <v>3.135303455855376</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CA11">
         <v>3.110047846889952</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CB11">
         <v>3.110047846889952</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CC11">
         <v>3.110047846889952</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CD11">
         <v>3.110047846889952</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:82">
+      <c r="A12" s="2">
         <v>37256</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.335333833458363</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.387846961740435</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.387846961740435</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1.387846961740435</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1.387846961740435</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1.364829396325451</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1.364829396325451</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>1.364829396325451</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>1.364829396325451</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1.367226554689061</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>1.367226554689061</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>1.367226554689061</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>1.367226554689061</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>1.382534563364102</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>1.382534563364102</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>1.382534563364102</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>1.382534563364102</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>1.364761166795803</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>1.364761166795803</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>1.364761166795803</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>1.364761166795803</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>1.364727054589099</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>1.364727054589077</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>1.364727054589077</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>1.364727054589099</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>1.642763344233589</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>1.642763344233589</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>1.642763344233589</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>1.642763344233589</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>1.640104019155997</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>1.640104019155997</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>1.640104019155997</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>1.640104019155997</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>1.640188480057669</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>1.640188480057669</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>1.640188480057669</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>1.640188480057669</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>1.831902444359379</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>1.831902444359379</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>1.831902444359379</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>1.831902444359379</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>1.843191949025069</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>1.843191949025069</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>1.843191949025069</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>1.843191949025069</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>1.832253124401806</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>1.832253124401806</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>1.832253124401806</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>1.832253124401806</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>1.826683803221307</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>1.826683803221307</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>1.826683803221307</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>1.826683803221307</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>1.832253124401784</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD12">
         <v>1.832253124401784</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12">
         <v>1.832253124401784</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BF12">
         <v>1.832253124401784</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BG12">
         <v>1.813433057311609</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>1.813433057311609</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>1.813433057311609</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>1.813433057311609</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>1.814898152534328</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>1.814898152534328</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BM12">
         <v>1.814898152534328</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BN12">
         <v>1.814898152534328</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BO12">
         <v>1.817805015247065</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BP12">
         <v>1.817805015247065</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BQ12">
         <v>1.817805015247065</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BR12">
         <v>1.817805015247065</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BS12">
         <v>1.817697385949879</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BT12">
         <v>1.817697385949879</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BU12">
         <v>1.817697385949879</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BV12">
         <v>1.817697385949879</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BW12">
         <v>1.811562028239067</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BX12">
         <v>1.811562028239067</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BY12">
         <v>1.811562028239067</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="BZ12">
         <v>1.811562028239067</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CA12">
         <v>1.749297838563901</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CB12">
         <v>1.749297838563901</v>
       </c>
-      <c r="CC12" t="n">
+      <c r="CC12">
         <v>1.749297838563901</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="CD12">
         <v>1.749297838563901</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:82">
+      <c r="A13" s="2">
         <v>37621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1949462047181827</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.09372302380070696</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.09372302380070696</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.09372302380070696</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.09372302380070696</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.004932060861628784</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.004932060861628784</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.004932060861628784</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>0.004932060861628784</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>0.002465787202576841</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>0.002465787202576841</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>0.002465787202576841</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>0.002465787202576841</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>0.009863878477034405</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>0.009863878477034405</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>0.009863878477034405</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>0.009863878477034405</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>0.00986363524275724</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>0.00986363524275724</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>0.00986363524275724</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>0.00986363524275724</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>0.01479508803077234</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>0.01479508803077234</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>0.01479508803077234</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>0.01726093603591217</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>0.02279924002532852</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>0.02279924002532852</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>0.02279924002532852</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>0.02279924002532852</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>0.03039821663797238</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>0.03039821663797238</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>0.03039821663797238</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>0.03039821663797238</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>0.02786644373513614</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>0.02786644373513614</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>0.02786644373513614</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>0.02786644373513614</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>0.02416496616901576</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>0.02416496616901576</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13">
         <v>0.02416496616901576</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13">
         <v>0.02416496616901576</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13">
         <v>0.01611127520744216</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13">
         <v>0.01611127520744216</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13">
         <v>0.01611127520744216</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13">
         <v>0.01611127520744216</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13">
         <v>0.02416950882189184</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13">
         <v>0.02416950882189184</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13">
         <v>0.02416950882189184</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13">
         <v>0.02416950882189184</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13">
         <v>0.02954051078227771</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13">
         <v>0.02954051078227771</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13">
         <v>0.02954051078227771</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB13">
         <v>0.02954051078227771</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC13">
         <v>0.02685500980206257</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD13">
         <v>0.02685500980206257</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13">
         <v>0.02685500980206257</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BF13">
         <v>0.02685500980206257</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BG13">
         <v>-0.1632462686566916</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BH13">
         <v>-0.1632462686566916</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BI13">
         <v>-0.1632462686566916</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13">
         <v>-0.1632462686566916</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BK13">
         <v>-0.1657506760883054</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BL13">
         <v>-0.1657506760883054</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BM13">
         <v>-0.1657506760883054</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BN13">
         <v>-0.1657506760883054</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BO13">
         <v>-0.1657410368991696</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BP13">
         <v>-0.1657410368991696</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BQ13">
         <v>-0.1657410368991696</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BR13">
         <v>-0.1657410368991696</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BS13">
         <v>-0.1657313988311593</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BT13">
         <v>-0.1657313988311593</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="BU13">
         <v>-0.1657313988311593</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="BV13">
         <v>-0.1657313988311593</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="BW13">
         <v>-0.162814362552699</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="BX13">
         <v>-0.162814362552699</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="BY13">
         <v>-0.162814362552699</v>
       </c>
-      <c r="BZ13" t="n">
+      <c r="BZ13">
         <v>-0.162814362552699</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CA13">
         <v>-0.1860241831438181</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CB13">
         <v>-0.1860241831438181</v>
       </c>
-      <c r="CC13" t="n">
+      <c r="CC13">
         <v>-0.1860241831438181</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CD13">
         <v>-0.1860241831438181</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:82">
+      <c r="A14" s="2">
         <v>37986</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-0.004925744403139198</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>-0.1872705319961643</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-0.1872705319961643</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-0.1872705319961643</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-0.1872705319961643</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-0.1997386136660673</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-0.1997386136660673</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-0.1997386136660673</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>-0.1997386136660673</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>-0.2293125554788333</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>-0.2293125554788333</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-0.2293125554788333</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>-0.2293125554788333</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>-0.2317782818818226</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>-0.2317782818818226</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>-0.2317782818818226</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>-0.2317782818818226</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>-0.2342382326108949</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>-0.2342382326108949</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>-0.2342382326108949</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>-0.2342382326108949</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>-0.2366863905325367</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>-0.2366863905325478</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>-0.2366863905325478</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>-0.2342151327629938</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>-0.3849660622024076</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>-0.3849660622024076</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>-0.3849660622024076</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>-0.3849660622024076</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>-0.3899918962723015</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>-0.3899918962723015</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>-0.3899918962723015</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>-0.3899918962723015</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>-0.3874889198429821</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>-0.3874889198429821</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>-0.3874889198429821</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>-0.3874889198429821</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14">
         <v>-0.7247738437172635</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14">
         <v>-0.7247738437172635</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14">
         <v>-0.7247738437172635</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14">
         <v>-0.7247738437172635</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14">
         <v>-0.7329449351625827</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14">
         <v>-0.7329449351625827</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14">
         <v>-0.7329449351625827</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14">
         <v>-0.7329449351625827</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14">
         <v>-0.7168555012619038</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14">
         <v>-0.7168555012619038</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14">
         <v>-0.7168555012619038</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14">
         <v>-0.7168555012619038</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14">
         <v>-0.7195017182130448</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14">
         <v>-0.7195017182130448</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14">
         <v>-0.7195017182130448</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BB14">
         <v>-0.7195017182130448</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BC14">
         <v>-0.7222058152334454</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BD14">
         <v>-0.7222058152334454</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14">
         <v>-0.7222058152334454</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BF14">
         <v>-0.7222058152334454</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BG14">
         <v>-0.7182901191310598</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BH14">
         <v>-0.7182901191310598</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BI14">
         <v>-0.7182901191310598</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BJ14">
         <v>-0.7182901191310598</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BK14">
         <v>-0.7136199464056747</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BL14">
         <v>-0.7136199464056747</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BM14">
         <v>-0.7136199464056747</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BN14">
         <v>-0.7136199464056747</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BO14">
         <v>-0.7077532475097459</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BP14">
         <v>-0.7077532475097459</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BQ14">
         <v>-0.7077532475097459</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BR14">
         <v>-0.7077532475097459</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BS14">
         <v>-0.7077120223671907</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BT14">
         <v>-0.7077120223671907</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BU14">
         <v>-0.7077120223671907</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="BV14">
         <v>-0.7077120223671907</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="BW14">
         <v>-0.7163866158012899</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="BX14">
         <v>-0.7163866158012899</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="BY14">
         <v>-0.7163866158012899</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="BZ14">
         <v>-0.7163866158012899</v>
       </c>
-      <c r="CA14" t="n">
+      <c r="CA14">
         <v>-0.544082724621997</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CB14">
         <v>-0.544082724621997</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CC14">
         <v>-0.544082724621997</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="CD14">
         <v>-0.544082724621997</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:82">
+      <c r="A15" s="2">
         <v>38352</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1.034457279377343</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.093638136618336</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.093638136618336</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1.093638136618336</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1.093638136618336</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.7709033405811416</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>0.7709033405811416</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.7709033405811416</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.7709033405811416</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.5708919259570511</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>0.5708919259570511</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>0.5708919259570511</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>0.5708919259570511</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>0.7167218624882565</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>0.7167218624882565</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>0.7167218624882565</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>0.7167218624882565</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>0.7389649547723698</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>0.7389649547723698</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>0.7389649547723698</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>0.7389649547723698</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>0.7389284302095511</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>0.7389284302095511</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>0.7389284302095511</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>0.7364206988583089</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>0.6991762432625004</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>0.6991762432625004</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>0.6991762432625004</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>0.6991762432625004</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>0.6940560329485868</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>0.6940560329485868</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>0.6940560329485868</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15">
         <v>0.6940560329485868</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15">
         <v>0.6940913251296754</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15">
         <v>0.6940913251296754</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15">
         <v>0.6940913251296754</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15">
         <v>0.6940913251296754</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15">
         <v>0.7165454397966897</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15">
         <v>0.7165454397966897</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15">
         <v>0.7165454397966897</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15">
         <v>0.7165454397966897</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15">
         <v>0.7031968410234457</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15">
         <v>0.7031968410234457</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15">
         <v>0.7031968410234457</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15">
         <v>0.7031968410234457</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15">
         <v>0.697693285378187</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15">
         <v>0.697693285378187</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15">
         <v>0.697693285378187</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15">
         <v>0.697693285378187</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15">
         <v>0.7003785830178577</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ15">
         <v>0.7003785830178577</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA15">
         <v>0.7003785830178577</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB15">
         <v>0.7003785830178577</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC15">
         <v>0.6977121531721586</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD15">
         <v>0.6977121531721586</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BE15">
         <v>0.6977121531721586</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BF15">
         <v>0.6977121531721586</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BG15">
         <v>0.7087818363625598</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BH15">
         <v>0.7087818363625598</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BI15">
         <v>0.7087818363625598</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BJ15">
         <v>0.7087818363625598</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BK15">
         <v>0.6982133951359382</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BL15">
         <v>0.6982133951359382</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BM15">
         <v>0.6982133951359382</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BN15">
         <v>0.6982133951359382</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BO15">
         <v>0.6951981461382983</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BP15">
         <v>0.6951981461382983</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BQ15">
         <v>0.6951981461382983</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BR15">
         <v>0.6951981461382983</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BS15">
         <v>0.7010236705481843</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BT15">
         <v>0.7010236705481843</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="BU15">
         <v>0.7010236705481843</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="BV15">
         <v>0.7010236705481843</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="BW15">
         <v>0.7039568239814553</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="BX15">
         <v>0.7039568239814553</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="BY15">
         <v>0.7039568239814553</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="BZ15">
         <v>0.7039568239814553</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CA15">
         <v>0.7042253521126751</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CB15">
         <v>0.7042253521126751</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CC15">
         <v>0.7042253521126751</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="CD15">
         <v>0.7042253521126751</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:82">
+      <c r="A16" s="2">
         <v>38717</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1.091575091575092</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1.164835164835143</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1.096018046292691</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1.096018046292691</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>1.096018046292691</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>1.096018046292691</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.9682017004964072</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>0.9682017004964072</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>0.9682017004964072</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>0.9682017004964072</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>0.9521005104043967</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>0.9521005104043967</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>0.9521005104043967</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>0.9521005104043967</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>0.9126370795613514</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>0.9126370795613514</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>0.9126370795613514</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>0.9126370795613514</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>0.9150455069548036</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>0.9150455069548036</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>0.9150455069548036</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>0.9076636247669301</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>0.8331860529704471</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>0.8331860529704471</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>0.8331860529704471</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>0.8331860529704471</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>0.8458100840760485</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>0.8458100840760485</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>0.8458100840760485</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16">
         <v>0.8458100840760485</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16">
         <v>0.8509026638050754</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16">
         <v>0.8509026638050754</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16">
         <v>0.8509026638050754</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16">
         <v>0.8509026638050754</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16">
         <v>0.8725300687285387</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16">
         <v>0.8725300687285387</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16">
         <v>0.8725300687285387</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16">
         <v>0.8725300687285387</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16">
         <v>0.8782295751194935</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16">
         <v>0.8782295751194935</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16">
         <v>0.8782295751194935</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16">
         <v>0.8782295751194935</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16">
         <v>0.8754733195477593</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16">
         <v>0.8754733195477593</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16">
         <v>0.8754733195477593</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX16">
         <v>0.8754733195477593</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY16">
         <v>0.8781116571336511</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ16">
         <v>0.8781116571336511</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA16">
         <v>0.8781116571336511</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB16">
         <v>0.8781116571336511</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BC16">
         <v>0.8728112579224456</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD16">
         <v>0.8781824041250275</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BE16">
         <v>0.8781824041250275</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BF16">
         <v>0.8781824041250275</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BG16">
         <v>0.8994539029874904</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BH16">
         <v>0.8994539029874904</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BI16">
         <v>0.8994539029874904</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BJ16">
         <v>0.8994539029874904</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BK16">
         <v>0.9002184996358409</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BL16">
         <v>0.9002184996358409</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BM16">
         <v>0.9002184996358409</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BN16">
         <v>0.9002184996358409</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BO16">
         <v>0.897226753670477</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BP16">
         <v>0.897226753670477</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BQ16">
         <v>0.897226753670477</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BR16">
         <v>0.897226753670477</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BS16">
         <v>0.9000349528137219</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BT16">
         <v>0.9000349528137219</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="BU16">
         <v>0.9000349528137219</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="BV16">
         <v>0.9000349528137219</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="BW16">
         <v>0.9000087379489319</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="BX16">
         <v>0.9000087379489319</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="BY16">
         <v>0.9000087379489319</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="BZ16">
         <v>0.9000087379489319</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CA16">
         <v>1.0474504036736</v>
       </c>
-      <c r="CB16" t="n">
+      <c r="CB16">
         <v>1.0474504036736</v>
       </c>
-      <c r="CC16" t="n">
+      <c r="CC16">
         <v>1.0474504036736</v>
       </c>
-      <c r="CD16" t="n">
+      <c r="CD16">
         <v>1.0474504036736</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:82">
+      <c r="A17" s="2">
         <v>39082</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>2.893453954548741</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>2.98561761781182</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>3.086059190031132</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>3.086059190031132</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>3.086059190031132</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>3.086059190031132</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>3.169664560038887</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>3.169664560038887</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>3.169664560038887</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>3.169664560038887</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>3.359832737704527</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>3.359832737704527</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>3.359832737704527</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>3.359832737704527</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>3.563788409179325</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>3.563788409179325</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>3.563788409179325</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>3.568823844021995</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>3.891128527430698</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>3.891128527430698</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>3.891128527430698</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>3.891128527430698</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>3.890641430073649</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>3.890641430073649</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17">
         <v>3.890641430073649</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17">
         <v>3.890641430073649</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17">
         <v>3.88062690901807</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17">
         <v>3.88062690901807</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17">
         <v>3.88062690901807</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17">
         <v>3.88062690901807</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17">
         <v>3.885769036276043</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17">
         <v>3.885769036276043</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17">
         <v>3.885769036276043</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17">
         <v>3.885769036276043</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17">
         <v>3.879023455179542</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17">
         <v>3.879023455179542</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17">
         <v>3.879023455179542</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17">
         <v>3.879023455179542</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17">
         <v>3.87349253254532</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17">
         <v>3.87349253254532</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17">
         <v>3.87349253254532</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX17">
         <v>3.87349253254532</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY17">
         <v>3.873183197572261</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ17">
         <v>3.873183197572261</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA17">
         <v>3.873183197572261</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB17">
         <v>3.873183197572261</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC17">
         <v>3.887010462980234</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD17">
         <v>3.881479115086628</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BE17">
         <v>3.881479115086628</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BF17">
         <v>3.881479115086628</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BG17">
         <v>3.999884229110595</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BH17">
         <v>3.999884229110595</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BI17">
         <v>3.999884229110595</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BJ17">
         <v>3.999884229110595</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BK17">
         <v>4.001847895131916</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BL17">
         <v>4.001847895131916</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BM17">
         <v>4.001847895131916</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BN17">
         <v>4.001847895131916</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BO17">
         <v>4.004503984293772</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BP17">
         <v>4.004503984293772</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BQ17">
         <v>4.004503984293772</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BR17">
         <v>4.004503984293772</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BS17">
         <v>3.995265725585284</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="BT17">
         <v>3.995265725585284</v>
       </c>
-      <c r="BU17" t="n">
+      <c r="BU17">
         <v>3.995265725585284</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="BV17">
         <v>3.995265725585284</v>
       </c>
-      <c r="BW17" t="n">
+      <c r="BW17">
         <v>4.000923734195472</v>
       </c>
-      <c r="BX17" t="n">
+      <c r="BX17">
         <v>4.000923734195472</v>
       </c>
-      <c r="BY17" t="n">
+      <c r="BY17">
         <v>4.000923734195472</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="BZ17">
         <v>4.000923734195472</v>
       </c>
-      <c r="CA17" t="n">
+      <c r="CA17">
         <v>4.04538434121422</v>
       </c>
-      <c r="CB17" t="n">
+      <c r="CB17">
         <v>4.04538434121422</v>
       </c>
-      <c r="CC17" t="n">
+      <c r="CC17">
         <v>4.04538434121422</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="CD17">
         <v>4.04538434121422</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:82">
+      <c r="A18" s="2">
         <v>39447</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>2.623005005194079</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>2.623005005194079</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>2.584582037508265</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>2.584582037508265</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>2.584582037508265</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>2.584582037508265</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>2.594378454663038</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>2.594378454663038</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>2.594378454663038</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>2.594378454663038</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>2.786254166471069</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>2.786254166471069</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>2.786254166471069</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>2.78155955119479</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>3.393507025620002</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>3.393507025620002</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>3.393507025620002</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>3.393507025620002</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>3.390688259109309</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>3.390688259109309</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18">
         <v>3.390688259109309</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18">
         <v>3.390688259109309</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18">
         <v>3.391015135447817</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18">
         <v>3.391015135447817</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18">
         <v>3.391015135447817</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18">
         <v>3.391015135447817</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18">
         <v>3.392001639638242</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18">
         <v>3.392001639638242</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18">
         <v>3.392001639638242</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18">
         <v>3.392001639638242</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18">
         <v>3.383053975088401</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18">
         <v>3.383053975088401</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18">
         <v>3.383053975088401</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18">
         <v>3.383053975088401</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18">
         <v>3.375365216054149</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18">
         <v>3.375365216054149</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18">
         <v>3.375365216054149</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AX18">
         <v>3.375365216054149</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AY18">
         <v>3.369980267035722</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="AZ18">
         <v>3.369980267035722</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BA18">
         <v>3.369980267035722</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BB18">
         <v>3.369980267035722</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BC18">
         <v>3.367417544399176</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD18">
         <v>3.364854821762631</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BE18">
         <v>3.364854821762631</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BF18">
         <v>3.364854821762631</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BG18">
         <v>3.083516544680354</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BH18">
         <v>3.083516544680354</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BI18">
         <v>3.083516544680354</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BJ18">
         <v>3.083516544680354</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BK18">
         <v>3.095502498611857</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BL18">
         <v>3.095502498611857</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BM18">
         <v>3.095502498611857</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BN18">
         <v>3.095502498611857</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BO18">
         <v>3.092468700552442</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BP18">
         <v>3.092468700552442</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BQ18">
         <v>3.092468700552442</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BR18">
         <v>3.092468700552442</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BS18">
         <v>3.092297015961143</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BT18">
         <v>3.092297015961143</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="BU18">
         <v>3.092297015961143</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="BV18">
         <v>3.092297015961143</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="BW18">
         <v>3.086488286887956</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="BX18">
         <v>3.086488286887956</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="BY18">
         <v>3.086488286887956</v>
       </c>
-      <c r="BZ18" t="n">
+      <c r="BZ18">
         <v>3.086488286887956</v>
       </c>
-      <c r="CA18" t="n">
+      <c r="CA18">
         <v>2.991721381672896</v>
       </c>
-      <c r="CB18" t="n">
+      <c r="CB18">
         <v>2.991721381672896</v>
       </c>
-      <c r="CC18" t="n">
+      <c r="CC18">
         <v>2.991721381672896</v>
       </c>
-      <c r="CD18" t="n">
+      <c r="CD18">
         <v>2.991721381672896</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:82">
+      <c r="A19" s="2">
         <v>39813</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>0.9806848717300864</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>0.9508279552605581</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>0.9651978540969219</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>0.9651978540969219</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>0.9651978540969219</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>0.9651978540969219</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>0.6988056361186601</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>0.6988056361186823</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>0.6988056361186823</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>0.7056889030990776</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>0.8065456071236987</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>0.8065456071236987</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>0.8065456071236987</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>0.8065456071236987</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>0.7994778919888645</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>0.7994778919888645</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19">
         <v>0.7994778919888645</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19">
         <v>0.7994778919888645</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19">
         <v>0.80887666379168</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19">
         <v>0.80887666379168</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19">
         <v>0.80887666379168</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19">
         <v>0.80887666379168</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19">
         <v>0.7731000817702061</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19">
         <v>0.7731000817702061</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19">
         <v>0.7731000817702061</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19">
         <v>0.7731000817702061</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19">
         <v>0.8056919034161059</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19">
         <v>0.8056919034161059</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19">
         <v>0.8056919034161059</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19">
         <v>0.8056919034161059</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19">
         <v>0.8156687740175972</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19">
         <v>0.8156687740175972</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19">
         <v>0.8156687740175972</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX19">
         <v>0.8156687740175972</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY19">
         <v>0.8156485521618295</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ19">
         <v>0.8156485521618295</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA19">
         <v>0.8156485521618295</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB19">
         <v>0.8156485521618295</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BC19">
         <v>0.8131895376224163</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BD19">
         <v>0.8156889968760961</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BE19">
         <v>0.8156889968760961</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BF19">
         <v>0.8156889968760961</v>
       </c>
-      <c r="BG19" t="n">
+      <c r="BG19">
         <v>0.6911260495126914</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BH19">
         <v>0.6911260495126914</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BI19">
         <v>0.6911260495126914</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BJ19">
         <v>0.6911260495126914</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BK19">
         <v>0.6812979668775476</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BL19">
         <v>0.6812979668775476</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BM19">
         <v>0.6812979668775476</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BN19">
         <v>0.6812979668775476</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BO19">
         <v>0.6839540081320372</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BP19">
         <v>0.6839540081320372</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BQ19">
         <v>0.6839540081320372</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BR19">
         <v>0.6839540081320372</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BS19">
         <v>0.6866097633215773</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="BT19">
         <v>0.6866097633215773</v>
       </c>
-      <c r="BU19" t="n">
+      <c r="BU19">
         <v>0.6866097633215773</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="BV19">
         <v>0.6866097633215773</v>
       </c>
-      <c r="BW19" t="n">
+      <c r="BW19">
         <v>0.686591276251991</v>
       </c>
-      <c r="BX19" t="n">
+      <c r="BX19">
         <v>0.686591276251991</v>
       </c>
-      <c r="BY19" t="n">
+      <c r="BY19">
         <v>0.686591276251991</v>
       </c>
-      <c r="BZ19" t="n">
+      <c r="BZ19">
         <v>0.686591276251991</v>
       </c>
-      <c r="CA19" t="n">
+      <c r="CA19">
         <v>0.640279394644927</v>
       </c>
-      <c r="CB19" t="n">
+      <c r="CB19">
         <v>0.640279394644927</v>
       </c>
-      <c r="CC19" t="n">
+      <c r="CC19">
         <v>0.640279394644927</v>
       </c>
-      <c r="CD19" t="n">
+      <c r="CD19">
         <v>0.640279394644927</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:82">
+      <c r="A20" s="2">
         <v>40178</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>-4.922909239537665</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>-4.882036376847787</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>-4.66946365801112</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>-4.66946365801113</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>-4.66946365801113</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>-4.669357764876613</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>-5.078043704474522</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>-5.078043704474522</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>-5.078043704474522</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>-5.078043704474522</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>-5.075613929612</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>-5.075613929612</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20">
         <v>-5.075613929612</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20">
         <v>-5.075613929612</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20">
         <v>-5.089488045137125</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20">
         <v>-5.089488045137125</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20">
         <v>-5.089488045137125</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20">
         <v>-5.089488045137125</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20">
         <v>-5.579188079372488</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20">
         <v>-5.579188079372488</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20">
         <v>-5.579188079372488</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20">
         <v>-5.579188079372488</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20">
         <v>-5.565255883727227</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20">
         <v>-5.565255883727227</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20">
         <v>-5.565255883727227</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT20">
         <v>-5.565255883727227</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU20">
         <v>-5.567578201849299</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV20">
         <v>-5.567578201849299</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AW20">
         <v>-5.567578201849299</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AX20">
         <v>-5.567578201849299</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AY20">
         <v>-5.562523054223534</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="AZ20">
         <v>-5.562523054223534</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BA20">
         <v>-5.562523054223534</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BB20">
         <v>-5.562523054223534</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BC20">
         <v>-5.560337407471172</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD20">
         <v>-5.560337407471194</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BE20">
         <v>-5.560337407471194</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BF20">
         <v>-5.560337407471194</v>
       </c>
-      <c r="BG20" t="n">
+      <c r="BG20">
         <v>-5.63852320561975</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BH20">
         <v>-5.63852320561975</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BI20">
         <v>-5.63852320561975</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BJ20">
         <v>-5.63852320561975</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BK20">
         <v>-5.640847330694355</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BL20">
         <v>-5.640847330694355</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BM20">
         <v>-5.640847330694355</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BN20">
         <v>-5.640847330694355</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BO20">
         <v>-5.643069187772487</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BP20">
         <v>-5.643069187772487</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BQ20">
         <v>-5.643069187772487</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BR20">
         <v>-5.643069187772487</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BS20">
         <v>-5.639942236722472</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="BT20">
         <v>-5.639942236722472</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="BU20">
         <v>-5.639942236722472</v>
       </c>
-      <c r="BV20" t="n">
+      <c r="BV20">
         <v>-5.639942236722472</v>
       </c>
-      <c r="BW20" t="n">
+      <c r="BW20">
         <v>-5.6424655702634</v>
       </c>
-      <c r="BX20" t="n">
+      <c r="BX20">
         <v>-5.6424655702634</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="BY20">
         <v>-5.6424655702634</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="BZ20">
         <v>-5.6424655702634</v>
       </c>
-      <c r="CA20" t="n">
+      <c r="CA20">
         <v>-5.494505494505497</v>
       </c>
-      <c r="CB20" t="n">
+      <c r="CB20">
         <v>-5.494505494505497</v>
       </c>
-      <c r="CC20" t="n">
+      <c r="CC20">
         <v>-5.494505494505497</v>
       </c>
-      <c r="CD20" t="n">
+      <c r="CD20">
         <v>-5.494505494505497</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:82">
+      <c r="A21" s="2">
         <v>40543</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>3.506518222475985</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>3.501677093988631</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>3.564033228580432</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>3.564033228580432</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>3.564033228580432</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>3.564033228580432</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>4.026698496991576</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>4.026698496991576</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21">
         <v>4.026698496991576</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21">
         <v>4.026698496991576</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21">
         <v>3.859178949932995</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21">
         <v>3.859178949932995</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21">
         <v>3.859178949932995</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21">
         <v>3.859178949932995</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21">
         <v>3.937499999999994</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21">
         <v>3.937499999999994</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21">
         <v>3.937499999999994</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21">
         <v>3.937499999999994</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21">
         <v>3.945312499999987</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR21">
         <v>3.945312499999987</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21">
         <v>3.945312499999987</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT21">
         <v>3.945312499999987</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AU21">
         <v>3.950520833333337</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AV21">
         <v>3.950520833333337</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AW21">
         <v>3.950520833333337</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AX21">
         <v>3.950520833333337</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AY21">
         <v>3.945004296539323</v>
       </c>
-      <c r="AZ21" t="n">
+      <c r="AZ21">
         <v>3.945004296539323</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BA21">
         <v>3.945004296539323</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB21">
         <v>3.945004296539323</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BC21">
         <v>3.937294932555591</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD21">
         <v>3.939898963595634</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BE21">
         <v>3.939898963595634</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BF21">
         <v>3.939898963595634</v>
       </c>
-      <c r="BG21" t="n">
+      <c r="BG21">
         <v>4.040461442291288</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BH21">
         <v>4.040461442291288</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BI21">
         <v>4.040461442291288</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BJ21">
         <v>4.040461442291288</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BK21">
         <v>4.042064684373115</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BL21">
         <v>4.042064684373115</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BM21">
         <v>4.042064684373115</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BN21">
         <v>4.042064684373115</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BO21">
         <v>4.044669935659417</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BP21">
         <v>4.044669935659417</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BQ21">
         <v>4.044669935659417</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BR21">
         <v>4.044669935659417</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BS21">
         <v>4.041377355816889</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="BT21">
         <v>4.041377355816889</v>
       </c>
-      <c r="BU21" t="n">
+      <c r="BU21">
         <v>4.041377355816889</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="BV21">
         <v>4.041377355816889</v>
       </c>
-      <c r="BW21" t="n">
+      <c r="BW21">
         <v>4.047045486750744</v>
       </c>
-      <c r="BX21" t="n">
+      <c r="BX21">
         <v>4.047045486750744</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="BY21">
         <v>4.047045486750744</v>
       </c>
-      <c r="BZ21" t="n">
+      <c r="BZ21">
         <v>4.047045486750744</v>
       </c>
-      <c r="CA21" t="n">
+      <c r="CA21">
         <v>4.007110800256442</v>
       </c>
-      <c r="CB21" t="n">
+      <c r="CB21">
         <v>4.007110800256442</v>
       </c>
-      <c r="CC21" t="n">
+      <c r="CC21">
         <v>4.007110800256442</v>
       </c>
-      <c r="CD21" t="n">
+      <c r="CD21">
         <v>4.007110800256442</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:82">
+      <c r="A22" s="2">
         <v>40908</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>3.057960105382018</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>3.057960105382018</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22">
         <v>3.095728737354819</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22">
         <v>3.095728737354819</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22">
         <v>3.095728737354819</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22">
         <v>3.095728737354819</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22">
         <v>3.401440334044881</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ22">
         <v>3.401440334044881</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK22">
         <v>3.401440334044881</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL22">
         <v>3.401440334044881</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM22">
         <v>3.660553217077611</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN22">
         <v>3.660553217077611</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO22">
         <v>3.660553217077611</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP22">
         <v>3.660553217077611</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ22">
         <v>3.717900538644647</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR22">
         <v>3.717900538644647</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22">
         <v>3.717900538644647</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT22">
         <v>3.717900538644647</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU22">
         <v>3.722724653656329</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV22">
         <v>3.722724653656329</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW22">
         <v>3.722724653656329</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX22">
         <v>3.722724653656329</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY22">
         <v>3.717621123302783</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="AZ22">
         <v>3.717621123302783</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BA22">
         <v>3.717621123302783</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BB22">
         <v>3.717621123302783</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BC22">
         <v>3.720499073006978</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD22">
         <v>3.720405862457721</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BE22">
         <v>3.720405862457721</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BF22">
         <v>3.720405862457721</v>
       </c>
-      <c r="BG22" t="n">
+      <c r="BG22">
         <v>3.990058990605205</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BH22">
         <v>3.990058990605205</v>
       </c>
-      <c r="BI22" t="n">
+      <c r="BI22">
         <v>3.990058990605205</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BJ22">
         <v>3.990058990605205</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BK22">
         <v>3.985832992780258</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BL22">
         <v>3.985832992780258</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BM22">
         <v>3.985832992780258</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BN22">
         <v>3.985832992780258</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BO22">
         <v>3.988231448185697</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BP22">
         <v>3.988231448185697</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BQ22">
         <v>3.988231448185697</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BR22">
         <v>3.988231448185697</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BS22">
         <v>3.990629511590549</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BT22">
         <v>3.990629511590549</v>
       </c>
-      <c r="BU22" t="n">
+      <c r="BU22">
         <v>3.990629511590549</v>
       </c>
-      <c r="BV22" t="n">
+      <c r="BV22">
         <v>3.990629511590549</v>
       </c>
-      <c r="BW22" t="n">
+      <c r="BW22">
         <v>3.987688284803714</v>
       </c>
-      <c r="BX22" t="n">
+      <c r="BX22">
         <v>3.987688284803714</v>
       </c>
-      <c r="BY22" t="n">
+      <c r="BY22">
         <v>3.987688284803714</v>
       </c>
-      <c r="BZ22" t="n">
+      <c r="BZ22">
         <v>3.987688284803714</v>
       </c>
-      <c r="CA22" t="n">
+      <c r="CA22">
         <v>3.838717812211079</v>
       </c>
-      <c r="CB22" t="n">
+      <c r="CB22">
         <v>3.838717812211079</v>
       </c>
-      <c r="CC22" t="n">
+      <c r="CC22">
         <v>3.838717812211079</v>
       </c>
-      <c r="CD22" t="n">
+      <c r="CD22">
         <v>3.838717812211079</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:82">
+      <c r="A23" s="2">
         <v>41274</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
+      <c r="AG23">
         <v>0.8676691046199725</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH23">
         <v>0.86994048971063</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI23">
         <v>0.8961183329930789</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ23">
         <v>0.8961183329930789</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK23">
         <v>0.8961183329930789</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL23">
         <v>0.8961183329930789</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM23">
         <v>0.582505498755248</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN23">
         <v>0.582505498755248</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO23">
         <v>0.582505498755248</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP23">
         <v>0.582505498755248</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AQ23">
         <v>0.6135413898886277</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AR23">
         <v>0.6135413898886277</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS23">
         <v>0.6135413898886277</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT23">
         <v>0.6135413898886277</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AU23">
         <v>0.6859406323213246</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AV23">
         <v>0.6859406323213246</v>
       </c>
-      <c r="AW23" t="n">
+      <c r="AW23">
         <v>0.6859406323213246</v>
       </c>
-      <c r="AX23" t="n">
+      <c r="AX23">
         <v>0.6859406323213246</v>
       </c>
-      <c r="AY23" t="n">
+      <c r="AY23">
         <v>0.6883725423892484</v>
       </c>
-      <c r="AZ23" t="n">
+      <c r="AZ23">
         <v>0.6883725423892484</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA23">
         <v>0.6883725423892484</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB23">
         <v>0.6883725423892484</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC23">
         <v>0.6908379429454659</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD23">
         <v>0.690821256038654</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BE23">
         <v>0.690821256038654</v>
       </c>
-      <c r="BF23" t="n">
+      <c r="BF23">
         <v>0.690821256038654</v>
       </c>
-      <c r="BG23" t="n">
+      <c r="BG23">
         <v>0.6171704703626713</v>
       </c>
-      <c r="BH23" t="n">
+      <c r="BH23">
         <v>0.6171704703626713</v>
       </c>
-      <c r="BI23" t="n">
+      <c r="BI23">
         <v>0.6171704703626713</v>
       </c>
-      <c r="BJ23" t="n">
+      <c r="BJ23">
         <v>0.6171704703626713</v>
       </c>
-      <c r="BK23" t="n">
+      <c r="BK23">
         <v>0.6235590023055959</v>
       </c>
-      <c r="BL23" t="n">
+      <c r="BL23">
         <v>0.6235590023055959</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BM23">
         <v>0.6235590023055959</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BN23">
         <v>0.6235590023055959</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BO23">
         <v>0.6156344964895366</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BP23">
         <v>0.6156344964895366</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BQ23">
         <v>0.6156344964895366</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BR23">
         <v>0.6156344964895366</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BS23">
         <v>0.6155699916177593</v>
       </c>
-      <c r="BT23" t="n">
+      <c r="BT23">
         <v>0.6155699916177593</v>
       </c>
-      <c r="BU23" t="n">
+      <c r="BU23">
         <v>0.6155699916177593</v>
       </c>
-      <c r="BV23" t="n">
+      <c r="BV23">
         <v>0.6155699916177593</v>
       </c>
-      <c r="BW23" t="n">
+      <c r="BW23">
         <v>0.6181732456714606</v>
       </c>
-      <c r="BX23" t="n">
+      <c r="BX23">
         <v>0.6181732456714606</v>
       </c>
-      <c r="BY23" t="n">
+      <c r="BY23">
         <v>0.6181732456714606</v>
       </c>
-      <c r="BZ23" t="n">
+      <c r="BZ23">
         <v>0.6181732456714606</v>
       </c>
-      <c r="CA23" t="n">
+      <c r="CA23">
         <v>0.6503143635824271</v>
       </c>
-      <c r="CB23" t="n">
+      <c r="CB23">
         <v>0.6503143635824271</v>
       </c>
-      <c r="CC23" t="n">
+      <c r="CC23">
         <v>0.6503143635824271</v>
       </c>
-      <c r="CD23" t="n">
+      <c r="CD23">
         <v>0.6503143635824271</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:82">
+      <c r="A24" s="2">
         <v>41639</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="n">
+      <c r="AK24">
         <v>0.532895624409746</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AL24">
         <v>0.532895624409746</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AM24">
         <v>0.2138703320997859</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AN24">
         <v>0.2138703320997859</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AO24">
         <v>0.2138703320997859</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AP24">
         <v>0.2138703320997859</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AQ24">
         <v>0.4057330804504211</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AR24">
         <v>0.4057330804504211</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AS24">
         <v>0.4057330804504211</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="AT24">
         <v>0.4057330804504211</v>
       </c>
-      <c r="AU24" t="n">
+      <c r="AU24">
         <v>0.5925108547029323</v>
       </c>
-      <c r="AV24" t="n">
+      <c r="AV24">
         <v>0.5925108547029323</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AW24">
         <v>0.5925108547029323</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AX24">
         <v>0.5925108547029323</v>
       </c>
-      <c r="AY24" t="n">
+      <c r="AY24">
         <v>0.599707342816691</v>
       </c>
-      <c r="AZ24" t="n">
+      <c r="AZ24">
         <v>0.599707342816691</v>
       </c>
-      <c r="BA24" t="n">
+      <c r="BA24">
         <v>0.599707342816691</v>
       </c>
-      <c r="BB24" t="n">
+      <c r="BB24">
         <v>0.599707342816691</v>
       </c>
-      <c r="BC24" t="n">
+      <c r="BC24">
         <v>0.6069329495022258</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BD24">
         <v>0.6021206160341741</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BE24">
         <v>0.6021206160341741</v>
       </c>
-      <c r="BF24" t="n">
+      <c r="BF24">
         <v>0.6021206160341741</v>
       </c>
-      <c r="BG24" t="n">
+      <c r="BG24">
         <v>0.5455209855919962</v>
       </c>
-      <c r="BH24" t="n">
+      <c r="BH24">
         <v>0.5455209855919962</v>
       </c>
-      <c r="BI24" t="n">
+      <c r="BI24">
         <v>0.5455209855919962</v>
       </c>
-      <c r="BJ24" t="n">
+      <c r="BJ24">
         <v>0.5455209855919962</v>
       </c>
-      <c r="BK24" t="n">
+      <c r="BK24">
         <v>0.5493933239597792</v>
       </c>
-      <c r="BL24" t="n">
+      <c r="BL24">
         <v>0.5493933239597792</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BM24">
         <v>0.5493933239597792</v>
       </c>
-      <c r="BN24" t="n">
+      <c r="BN24">
         <v>0.5493933239597792</v>
       </c>
-      <c r="BO24" t="n">
+      <c r="BO24">
         <v>0.5519827114848885</v>
       </c>
-      <c r="BP24" t="n">
+      <c r="BP24">
         <v>0.5519827114848885</v>
       </c>
-      <c r="BQ24" t="n">
+      <c r="BQ24">
         <v>0.5519827114848885</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BR24">
         <v>0.5519827114848885</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BS24">
         <v>0.5493218088568286</v>
       </c>
-      <c r="BT24" t="n">
+      <c r="BT24">
         <v>0.5493218088568286</v>
       </c>
-      <c r="BU24" t="n">
+      <c r="BU24">
         <v>0.5493218088568286</v>
       </c>
-      <c r="BV24" t="n">
+      <c r="BV24">
         <v>0.5493218088568286</v>
       </c>
-      <c r="BW24" t="n">
+      <c r="BW24">
         <v>0.5518964933746373</v>
       </c>
-      <c r="BX24" t="n">
+      <c r="BX24">
         <v>0.5518964933746373</v>
       </c>
-      <c r="BY24" t="n">
+      <c r="BY24">
         <v>0.5518964933746373</v>
       </c>
-      <c r="BZ24" t="n">
+      <c r="BZ24">
         <v>0.5518964933746373</v>
       </c>
-      <c r="CA24" t="n">
+      <c r="CA24">
         <v>0.5067024128686315</v>
       </c>
-      <c r="CB24" t="n">
+      <c r="CB24">
         <v>0.5067024128686315</v>
       </c>
-      <c r="CC24" t="n">
+      <c r="CC24">
         <v>0.5067024128686315</v>
       </c>
-      <c r="CD24" t="n">
+      <c r="CD24">
         <v>0.5067024128686315</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:82">
+      <c r="A25" s="2">
         <v>42004</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="n">
+      <c r="AO25">
         <v>1.606599045632229</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AP25">
         <v>1.606599045632229</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AQ25">
         <v>1.580507866673031</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AR25">
         <v>1.580507866673031</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AS25">
         <v>1.580507866673031</v>
       </c>
-      <c r="AT25" t="n">
+      <c r="AT25">
         <v>1.580507866673031</v>
       </c>
-      <c r="AU25" t="n">
+      <c r="AU25">
         <v>1.59536414365431</v>
       </c>
-      <c r="AV25" t="n">
+      <c r="AV25">
         <v>1.59536414365431</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="AW25">
         <v>1.59536414365431</v>
       </c>
-      <c r="AX25" t="n">
+      <c r="AX25">
         <v>1.59536414365431</v>
       </c>
-      <c r="AY25" t="n">
+      <c r="AY25">
         <v>1.926699573169266</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="AZ25">
         <v>1.926699573169266</v>
       </c>
-      <c r="BA25" t="n">
+      <c r="BA25">
         <v>1.926699573169266</v>
       </c>
-      <c r="BB25" t="n">
+      <c r="BB25">
         <v>1.926699573169266</v>
       </c>
-      <c r="BC25" t="n">
+      <c r="BC25">
         <v>2.177023224760366</v>
       </c>
-      <c r="BD25" t="n">
+      <c r="BD25">
         <v>2.177075136514306</v>
       </c>
-      <c r="BE25" t="n">
+      <c r="BE25">
         <v>2.177075136514306</v>
       </c>
-      <c r="BF25" t="n">
+      <c r="BF25">
         <v>2.177075136514306</v>
       </c>
-      <c r="BG25" t="n">
+      <c r="BG25">
         <v>2.209184600607483</v>
       </c>
-      <c r="BH25" t="n">
+      <c r="BH25">
         <v>2.209184600607483</v>
       </c>
-      <c r="BI25" t="n">
+      <c r="BI25">
         <v>2.209184600607483</v>
       </c>
-      <c r="BJ25" t="n">
+      <c r="BJ25">
         <v>2.209184600607483</v>
       </c>
-      <c r="BK25" t="n">
+      <c r="BK25">
         <v>2.206282207318022</v>
       </c>
-      <c r="BL25" t="n">
+      <c r="BL25">
         <v>2.206282207318022</v>
       </c>
-      <c r="BM25" t="n">
+      <c r="BM25">
         <v>2.206282207318022</v>
       </c>
-      <c r="BN25" t="n">
+      <c r="BN25">
         <v>2.206282207318022</v>
       </c>
-      <c r="BO25" t="n">
+      <c r="BO25">
         <v>2.203578549418661</v>
       </c>
-      <c r="BP25" t="n">
+      <c r="BP25">
         <v>2.203578549418661</v>
       </c>
-      <c r="BQ25" t="n">
+      <c r="BQ25">
         <v>2.203578549418661</v>
       </c>
-      <c r="BR25" t="n">
+      <c r="BR25">
         <v>2.203578549418661</v>
       </c>
-      <c r="BS25" t="n">
+      <c r="BS25">
         <v>2.211174977991792</v>
       </c>
-      <c r="BT25" t="n">
+      <c r="BT25">
         <v>2.211174977991792</v>
       </c>
-      <c r="BU25" t="n">
+      <c r="BU25">
         <v>2.211174977991792</v>
       </c>
-      <c r="BV25" t="n">
+      <c r="BV25">
         <v>2.211174977991792</v>
       </c>
-      <c r="BW25" t="n">
+      <c r="BW25">
         <v>2.203236245954709</v>
       </c>
-      <c r="BX25" t="n">
+      <c r="BX25">
         <v>2.203236245954709</v>
       </c>
-      <c r="BY25" t="n">
+      <c r="BY25">
         <v>2.203236245954709</v>
       </c>
-      <c r="BZ25" t="n">
+      <c r="BZ25">
         <v>2.203236245954709</v>
       </c>
-      <c r="CA25" t="n">
+      <c r="CA25">
         <v>2.168636133265767</v>
       </c>
-      <c r="CB25" t="n">
+      <c r="CB25">
         <v>2.168636133265767</v>
       </c>
-      <c r="CC25" t="n">
+      <c r="CC25">
         <v>2.168636133265767</v>
       </c>
-      <c r="CD25" t="n">
+      <c r="CD25">
         <v>2.168636133265767</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:82">
+      <c r="A26" s="2">
         <v>42369</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="n">
+      <c r="AS26">
         <v>1.44999176141043</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT26">
         <v>1.44999176141043</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU26">
         <v>1.483463605849389</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV26">
         <v>1.483463605849389</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW26">
         <v>1.483463605849389</v>
       </c>
-      <c r="AX26" t="n">
+      <c r="AX26">
         <v>1.483463605849389</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AY26">
         <v>1.50426950520528</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AZ26">
         <v>1.50426950520528</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BA26">
         <v>1.50426950520528</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BB26">
         <v>1.50426950520528</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BC26">
         <v>1.481879069333258</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BD26">
         <v>1.484247374562409</v>
       </c>
-      <c r="BE26" t="n">
+      <c r="BE26">
         <v>1.484247374562409</v>
       </c>
-      <c r="BF26" t="n">
+      <c r="BF26">
         <v>1.484247374562409</v>
       </c>
-      <c r="BG26" t="n">
+      <c r="BG26">
         <v>1.493447119780567</v>
       </c>
-      <c r="BH26" t="n">
+      <c r="BH26">
         <v>1.493447119780567</v>
       </c>
-      <c r="BI26" t="n">
+      <c r="BI26">
         <v>1.493447119780567</v>
       </c>
-      <c r="BJ26" t="n">
+      <c r="BJ26">
         <v>1.493447119780567</v>
       </c>
-      <c r="BK26" t="n">
+      <c r="BK26">
         <v>1.238947021713255</v>
       </c>
-      <c r="BL26" t="n">
+      <c r="BL26">
         <v>1.238947021713255</v>
       </c>
-      <c r="BM26" t="n">
+      <c r="BM26">
         <v>1.238947021713255</v>
       </c>
-      <c r="BN26" t="n">
+      <c r="BN26">
         <v>1.238947021713255</v>
       </c>
-      <c r="BO26" t="n">
+      <c r="BO26">
         <v>1.243982771725349</v>
       </c>
-      <c r="BP26" t="n">
+      <c r="BP26">
         <v>1.243982771725349</v>
       </c>
-      <c r="BQ26" t="n">
+      <c r="BQ26">
         <v>1.243982771725349</v>
       </c>
-      <c r="BR26" t="n">
+      <c r="BR26">
         <v>1.243982771725349</v>
       </c>
-      <c r="BS26" t="n">
+      <c r="BS26">
         <v>1.238727327996769</v>
       </c>
-      <c r="BT26" t="n">
+      <c r="BT26">
         <v>1.238727327996769</v>
       </c>
-      <c r="BU26" t="n">
+      <c r="BU26">
         <v>1.238727327996769</v>
       </c>
-      <c r="BV26" t="n">
+      <c r="BV26">
         <v>1.238727327996769</v>
       </c>
-      <c r="BW26" t="n">
+      <c r="BW26">
         <v>1.24126051271658</v>
       </c>
-      <c r="BX26" t="n">
+      <c r="BX26">
         <v>1.24126051271658</v>
       </c>
-      <c r="BY26" t="n">
+      <c r="BY26">
         <v>1.24126051271658</v>
       </c>
-      <c r="BZ26" t="n">
+      <c r="BZ26">
         <v>1.24126051271658</v>
       </c>
-      <c r="CA26" t="n">
+      <c r="CA26">
         <v>1.404626390266794</v>
       </c>
-      <c r="CB26" t="n">
+      <c r="CB26">
         <v>1.404626390266794</v>
       </c>
-      <c r="CC26" t="n">
+      <c r="CC26">
         <v>1.404626390266794</v>
       </c>
-      <c r="CD26" t="n">
+      <c r="CD26">
         <v>1.404626390266794</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:82">
+      <c r="A27" s="2">
         <v>42735</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="n">
+      <c r="AW27">
         <v>1.77402567364402</v>
       </c>
-      <c r="AX27" t="n">
+      <c r="AX27">
         <v>1.785590378165813</v>
       </c>
-      <c r="AY27" t="n">
+      <c r="AY27">
         <v>1.855351710150277</v>
       </c>
-      <c r="AZ27" t="n">
+      <c r="AZ27">
         <v>1.855351710150277</v>
       </c>
-      <c r="BA27" t="n">
+      <c r="BA27">
         <v>1.855351710150277</v>
       </c>
-      <c r="BB27" t="n">
+      <c r="BB27">
         <v>1.855351710150277</v>
       </c>
-      <c r="BC27" t="n">
+      <c r="BC27">
         <v>2.157016051142935</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BD27">
         <v>2.157016051142935</v>
       </c>
-      <c r="BE27" t="n">
+      <c r="BE27">
         <v>2.157016051142935</v>
       </c>
-      <c r="BF27" t="n">
+      <c r="BF27">
         <v>2.157016051142935</v>
       </c>
-      <c r="BG27" t="n">
+      <c r="BG27">
         <v>2.144644644644655</v>
       </c>
-      <c r="BH27" t="n">
+      <c r="BH27">
         <v>2.144644644644655</v>
       </c>
-      <c r="BI27" t="n">
+      <c r="BI27">
         <v>2.144644644644655</v>
       </c>
-      <c r="BJ27" t="n">
+      <c r="BJ27">
         <v>2.144644644644655</v>
       </c>
-      <c r="BK27" t="n">
+      <c r="BK27">
         <v>2.139746734070758</v>
       </c>
-      <c r="BL27" t="n">
+      <c r="BL27">
         <v>2.139746734070758</v>
       </c>
-      <c r="BM27" t="n">
+      <c r="BM27">
         <v>2.139746734070758</v>
       </c>
-      <c r="BN27" t="n">
+      <c r="BN27">
         <v>2.139746734070758</v>
       </c>
-      <c r="BO27" t="n">
+      <c r="BO27">
         <v>2.139586096444024</v>
       </c>
-      <c r="BP27" t="n">
+      <c r="BP27">
         <v>2.139586096444024</v>
       </c>
-      <c r="BQ27" t="n">
+      <c r="BQ27">
         <v>2.139586096444024</v>
       </c>
-      <c r="BR27" t="n">
+      <c r="BR27">
         <v>2.139586096444024</v>
       </c>
-      <c r="BS27" t="n">
+      <c r="BS27">
         <v>2.139371950456614</v>
       </c>
-      <c r="BT27" t="n">
+      <c r="BT27">
         <v>2.139371950456614</v>
       </c>
-      <c r="BU27" t="n">
+      <c r="BU27">
         <v>2.139371950456614</v>
       </c>
-      <c r="BV27" t="n">
+      <c r="BV27">
         <v>2.139371950456614</v>
       </c>
-      <c r="BW27" t="n">
+      <c r="BW27">
         <v>2.141820547465345</v>
       </c>
-      <c r="BX27" t="n">
+      <c r="BX27">
         <v>2.141820547465345</v>
       </c>
-      <c r="BY27" t="n">
+      <c r="BY27">
         <v>2.141820547465345</v>
       </c>
-      <c r="BZ27" t="n">
+      <c r="BZ27">
         <v>2.141820547465345</v>
       </c>
-      <c r="CA27" t="n">
+      <c r="CA27">
         <v>2.214212152420192</v>
       </c>
-      <c r="CB27" t="n">
+      <c r="CB27">
         <v>2.214212152420192</v>
       </c>
-      <c r="CC27" t="n">
+      <c r="CC27">
         <v>2.214212152420192</v>
       </c>
-      <c r="CD27" t="n">
+      <c r="CD27">
         <v>2.214212152420192</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:82">
+      <c r="A28" s="2">
         <v>43100</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="n">
+      <c r="BA28">
         <v>2.513972801122333</v>
       </c>
-      <c r="BB28" t="n">
+      <c r="BB28">
         <v>2.513972801122333</v>
       </c>
-      <c r="BC28" t="n">
+      <c r="BC28">
         <v>2.455879704664143</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BD28">
         <v>2.455879704664143</v>
       </c>
-      <c r="BE28" t="n">
+      <c r="BE28">
         <v>2.455879704664143</v>
       </c>
-      <c r="BF28" t="n">
+      <c r="BF28">
         <v>2.455879704664143</v>
       </c>
-      <c r="BG28" t="n">
+      <c r="BG28">
         <v>2.768454320503722</v>
       </c>
-      <c r="BH28" t="n">
+      <c r="BH28">
         <v>2.768454320503722</v>
       </c>
-      <c r="BI28" t="n">
+      <c r="BI28">
         <v>2.768454320503722</v>
       </c>
-      <c r="BJ28" t="n">
+      <c r="BJ28">
         <v>2.768454320503722</v>
       </c>
-      <c r="BK28" t="n">
+      <c r="BK28">
         <v>2.908387033543236</v>
       </c>
-      <c r="BL28" t="n">
+      <c r="BL28">
         <v>2.908387033543236</v>
       </c>
-      <c r="BM28" t="n">
+      <c r="BM28">
         <v>2.908387033543236</v>
       </c>
-      <c r="BN28" t="n">
+      <c r="BN28">
         <v>2.908387033543236</v>
       </c>
-      <c r="BO28" t="n">
+      <c r="BO28">
         <v>2.989023912191291</v>
       </c>
-      <c r="BP28" t="n">
+      <c r="BP28">
         <v>2.989023912191291</v>
       </c>
-      <c r="BQ28" t="n">
+      <c r="BQ28">
         <v>2.989023912191291</v>
       </c>
-      <c r="BR28" t="n">
+      <c r="BR28">
         <v>2.989023912191291</v>
       </c>
-      <c r="BS28" t="n">
+      <c r="BS28">
         <v>2.98383145516905</v>
       </c>
-      <c r="BT28" t="n">
+      <c r="BT28">
         <v>2.98383145516905</v>
       </c>
-      <c r="BU28" t="n">
+      <c r="BU28">
         <v>2.98383145516905</v>
       </c>
-      <c r="BV28" t="n">
+      <c r="BV28">
         <v>2.98383145516905</v>
       </c>
-      <c r="BW28" t="n">
+      <c r="BW28">
         <v>2.983685267747793</v>
       </c>
-      <c r="BX28" t="n">
+      <c r="BX28">
         <v>2.983685267747793</v>
       </c>
-      <c r="BY28" t="n">
+      <c r="BY28">
         <v>2.983685267747793</v>
       </c>
-      <c r="BZ28" t="n">
+      <c r="BZ28">
         <v>2.983685267747793</v>
       </c>
-      <c r="CA28" t="n">
+      <c r="CA28">
         <v>3.002518891687656</v>
       </c>
-      <c r="CB28" t="n">
+      <c r="CB28">
         <v>3.002518891687656</v>
       </c>
-      <c r="CC28" t="n">
+      <c r="CC28">
         <v>3.002518891687656</v>
       </c>
-      <c r="CD28" t="n">
+      <c r="CD28">
         <v>3.002518891687656</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:82">
+      <c r="A29" s="2">
         <v>43465</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="inlineStr"/>
-      <c r="BE29" t="n">
+      <c r="BE29">
         <v>1.452268482917729</v>
       </c>
-      <c r="BF29" t="n">
+      <c r="BF29">
         <v>1.452268482917729</v>
       </c>
-      <c r="BG29" t="n">
+      <c r="BG29">
         <v>1.544806541588173</v>
       </c>
-      <c r="BH29" t="n">
+      <c r="BH29">
         <v>1.544806541588173</v>
       </c>
-      <c r="BI29" t="n">
+      <c r="BI29">
         <v>1.544806541588173</v>
       </c>
-      <c r="BJ29" t="n">
+      <c r="BJ29">
         <v>1.544806541588173</v>
       </c>
-      <c r="BK29" t="n">
+      <c r="BK29">
         <v>1.295238095238127</v>
       </c>
-      <c r="BL29" t="n">
+      <c r="BL29">
         <v>1.295238095238127</v>
       </c>
-      <c r="BM29" t="n">
+      <c r="BM29">
         <v>1.295238095238127</v>
       </c>
-      <c r="BN29" t="n">
+      <c r="BN29">
         <v>1.295238095238127</v>
       </c>
-      <c r="BO29" t="n">
+      <c r="BO29">
         <v>1.10381577695311</v>
       </c>
-      <c r="BP29" t="n">
+      <c r="BP29">
         <v>1.10381577695311</v>
       </c>
-      <c r="BQ29" t="n">
+      <c r="BQ29">
         <v>1.10381577695311</v>
       </c>
-      <c r="BR29" t="n">
+      <c r="BR29">
         <v>1.10381577695311</v>
       </c>
-      <c r="BS29" t="n">
+      <c r="BS29">
         <v>1.006232456349032</v>
       </c>
-      <c r="BT29" t="n">
+      <c r="BT29">
         <v>1.006232456349032</v>
       </c>
-      <c r="BU29" t="n">
+      <c r="BU29">
         <v>1.006232456349032</v>
       </c>
-      <c r="BV29" t="n">
+      <c r="BV29">
         <v>1.006232456349032</v>
       </c>
-      <c r="BW29" t="n">
+      <c r="BW29">
         <v>1.006184586108461</v>
       </c>
-      <c r="BX29" t="n">
+      <c r="BX29">
         <v>1.006184586108461</v>
       </c>
-      <c r="BY29" t="n">
+      <c r="BY29">
         <v>1.006184586108461</v>
       </c>
-      <c r="BZ29" t="n">
+      <c r="BZ29">
         <v>1.006184586108461</v>
       </c>
-      <c r="CA29" t="n">
+      <c r="CA29">
         <v>1.134696273109648</v>
       </c>
-      <c r="CB29" t="n">
+      <c r="CB29">
         <v>1.134696273109648</v>
       </c>
-      <c r="CC29" t="n">
+      <c r="CC29">
         <v>1.134696273109648</v>
       </c>
-      <c r="CD29" t="n">
+      <c r="CD29">
         <v>1.134696273109648</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:82">
+      <c r="A30" s="2">
         <v>43830</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
-      <c r="BE30" t="inlineStr"/>
-      <c r="BF30" t="inlineStr"/>
-      <c r="BG30" t="inlineStr"/>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="n">
+      <c r="BI30">
         <v>0.6010095081582234</v>
       </c>
-      <c r="BJ30" t="n">
+      <c r="BJ30">
         <v>0.6010095081582456</v>
       </c>
-      <c r="BK30" t="n">
+      <c r="BK30">
         <v>0.5876269274163626</v>
       </c>
-      <c r="BL30" t="n">
+      <c r="BL30">
         <v>0.5876269274163626</v>
       </c>
-      <c r="BM30" t="n">
+      <c r="BM30">
         <v>0.5876269274163626</v>
       </c>
-      <c r="BN30" t="n">
+      <c r="BN30">
         <v>0.5876269274163626</v>
       </c>
-      <c r="BO30" t="n">
+      <c r="BO30">
         <v>1.084705882352943</v>
       </c>
-      <c r="BP30" t="n">
+      <c r="BP30">
         <v>1.084705882352943</v>
       </c>
-      <c r="BQ30" t="n">
+      <c r="BQ30">
         <v>1.084705882352943</v>
       </c>
-      <c r="BR30" t="n">
+      <c r="BR30">
         <v>1.084705882352943</v>
       </c>
-      <c r="BS30" t="n">
+      <c r="BS30">
         <v>1.085702173759451</v>
       </c>
-      <c r="BT30" t="n">
+      <c r="BT30">
         <v>1.085702173759451</v>
       </c>
-      <c r="BU30" t="n">
+      <c r="BU30">
         <v>1.085702173759451</v>
       </c>
-      <c r="BV30" t="n">
+      <c r="BV30">
         <v>1.085702173759451</v>
       </c>
-      <c r="BW30" t="n">
+      <c r="BW30">
         <v>1.104490968607963</v>
       </c>
-      <c r="BX30" t="n">
+      <c r="BX30">
         <v>1.104490968607963</v>
       </c>
-      <c r="BY30" t="n">
+      <c r="BY30">
         <v>1.104490968607963</v>
       </c>
-      <c r="BZ30" t="n">
+      <c r="BZ30">
         <v>1.104490968607963</v>
       </c>
-      <c r="CA30" t="n">
+      <c r="CA30">
         <v>1.027662249734029</v>
       </c>
-      <c r="CB30" t="n">
+      <c r="CB30">
         <v>1.027662249734029</v>
       </c>
-      <c r="CC30" t="n">
+      <c r="CC30">
         <v>1.027662249734029</v>
       </c>
-      <c r="CD30" t="n">
+      <c r="CD30">
         <v>1.027662249734029</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:82">
+      <c r="A31" s="2">
         <v>44196</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="inlineStr"/>
-      <c r="BE31" t="inlineStr"/>
-      <c r="BF31" t="inlineStr"/>
-      <c r="BG31" t="inlineStr"/>
-      <c r="BH31" t="inlineStr"/>
-      <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="n">
+      <c r="BM31">
         <v>-5.264756741599275</v>
       </c>
-      <c r="BN31" t="n">
+      <c r="BN31">
         <v>-5.126886946768239</v>
       </c>
-      <c r="BO31" t="n">
+      <c r="BO31">
         <v>-4.923069760945986</v>
       </c>
-      <c r="BP31" t="n">
+      <c r="BP31">
         <v>-4.923069760945986</v>
       </c>
-      <c r="BQ31" t="n">
+      <c r="BQ31">
         <v>-4.923069760945986</v>
       </c>
-      <c r="BR31" t="n">
+      <c r="BR31">
         <v>-4.923069760945986</v>
       </c>
-      <c r="BS31" t="n">
+      <c r="BS31">
         <v>-4.063184380970153</v>
       </c>
-      <c r="BT31" t="n">
+      <c r="BT31">
         <v>-4.063184380970153</v>
       </c>
-      <c r="BU31" t="n">
+      <c r="BU31">
         <v>-4.063184380970153</v>
       </c>
-      <c r="BV31" t="n">
+      <c r="BV31">
         <v>-4.063184380970153</v>
       </c>
-      <c r="BW31" t="n">
+      <c r="BW31">
         <v>-4.197335320972694</v>
       </c>
-      <c r="BX31" t="n">
+      <c r="BX31">
         <v>-4.197335320972694</v>
       </c>
-      <c r="BY31" t="n">
+      <c r="BY31">
         <v>-4.197335320972694</v>
       </c>
-      <c r="BZ31" t="n">
+      <c r="BZ31">
         <v>-4.197335320972694</v>
       </c>
-      <c r="CA31" t="n">
+      <c r="CA31">
         <v>-4.456571168713019</v>
       </c>
-      <c r="CB31" t="n">
+      <c r="CB31">
         <v>-4.456571168713019</v>
       </c>
-      <c r="CC31" t="n">
+      <c r="CC31">
         <v>-4.456571168713019</v>
       </c>
-      <c r="CD31" t="n">
+      <c r="CD31">
         <v>-4.456571168713019</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:82">
+      <c r="A32" s="2">
         <v>44561</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
-      <c r="BE32" t="inlineStr"/>
-      <c r="BF32" t="inlineStr"/>
-      <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="inlineStr"/>
-      <c r="BI32" t="inlineStr"/>
-      <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="inlineStr"/>
-      <c r="BN32" t="inlineStr"/>
-      <c r="BO32" t="inlineStr"/>
-      <c r="BP32" t="inlineStr"/>
-      <c r="BQ32" t="n">
+      <c r="BQ32">
         <v>2.869314008715662</v>
       </c>
-      <c r="BR32" t="n">
+      <c r="BR32">
         <v>2.869314008715662</v>
       </c>
-      <c r="BS32" t="n">
+      <c r="BS32">
         <v>2.586332507649702</v>
       </c>
-      <c r="BT32" t="n">
+      <c r="BT32">
         <v>2.586332507649702</v>
       </c>
-      <c r="BU32" t="n">
+      <c r="BU32">
         <v>2.586332507649702</v>
       </c>
-      <c r="BV32" t="n">
+      <c r="BV32">
         <v>2.586332507649702</v>
       </c>
-      <c r="BW32" t="n">
+      <c r="BW32">
         <v>3.124240213955765</v>
       </c>
-      <c r="BX32" t="n">
+      <c r="BX32">
         <v>3.124240213955765</v>
       </c>
-      <c r="BY32" t="n">
+      <c r="BY32">
         <v>3.124240213955765</v>
       </c>
-      <c r="BZ32" t="n">
+      <c r="BZ32">
         <v>3.124240213955765</v>
       </c>
-      <c r="CA32" t="n">
+      <c r="CA32">
         <v>3.624840301610766</v>
       </c>
-      <c r="CB32" t="n">
+      <c r="CB32">
         <v>3.624840301610766</v>
       </c>
-      <c r="CC32" t="n">
+      <c r="CC32">
         <v>3.624840301610766</v>
       </c>
-      <c r="CD32" t="n">
+      <c r="CD32">
         <v>3.624840301610766</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:82">
+      <c r="A33" s="2">
         <v>44926</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
-      <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="inlineStr"/>
-      <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
-      <c r="BI33" t="inlineStr"/>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="inlineStr"/>
-      <c r="BM33" t="inlineStr"/>
-      <c r="BN33" t="inlineStr"/>
-      <c r="BO33" t="inlineStr"/>
-      <c r="BP33" t="inlineStr"/>
-      <c r="BQ33" t="inlineStr"/>
-      <c r="BR33" t="inlineStr"/>
-      <c r="BS33" t="inlineStr"/>
-      <c r="BT33" t="inlineStr"/>
-      <c r="BU33" t="n">
+      <c r="BU33">
         <v>1.858296049049524</v>
       </c>
-      <c r="BV33" t="n">
+      <c r="BV33">
         <v>1.88907037852426</v>
       </c>
-      <c r="BW33" t="n">
+      <c r="BW33">
         <v>1.879052222091238</v>
       </c>
-      <c r="BX33" t="n">
+      <c r="BX33">
         <v>1.879052222091238</v>
       </c>
-      <c r="BY33" t="n">
+      <c r="BY33">
         <v>1.879052222091238</v>
       </c>
-      <c r="BZ33" t="n">
+      <c r="BZ33">
         <v>1.879052222091238</v>
       </c>
-      <c r="CA33" t="n">
+      <c r="CA33">
         <v>1.445631678189807</v>
       </c>
-      <c r="CB33" t="n">
+      <c r="CB33">
         <v>1.445631678189807</v>
       </c>
-      <c r="CC33" t="n">
+      <c r="CC33">
         <v>1.445631678189807</v>
       </c>
-      <c r="CD33" t="n">
+      <c r="CD33">
         <v>1.445631678189807</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:82">
+      <c r="A34" s="2">
         <v>45291</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
-      <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
-      <c r="BN34" t="inlineStr"/>
-      <c r="BO34" t="inlineStr"/>
-      <c r="BP34" t="inlineStr"/>
-      <c r="BQ34" t="inlineStr"/>
-      <c r="BR34" t="inlineStr"/>
-      <c r="BS34" t="inlineStr"/>
-      <c r="BT34" t="inlineStr"/>
-      <c r="BU34" t="inlineStr"/>
-      <c r="BV34" t="inlineStr"/>
-      <c r="BW34" t="inlineStr"/>
-      <c r="BX34" t="inlineStr"/>
-      <c r="BY34" t="n">
+      <c r="BY34">
         <v>-0.1110802554845636</v>
       </c>
-      <c r="BZ34" t="n">
+      <c r="BZ34">
         <v>0</v>
       </c>
-      <c r="CA34" t="n">
+      <c r="CA34">
         <v>-0.06434086359737856</v>
       </c>
-      <c r="CB34" t="n">
+      <c r="CB34">
         <v>-0.06434086359737856</v>
       </c>
-      <c r="CC34" t="n">
+      <c r="CC34">
         <v>-0.06434086359737856</v>
       </c>
-      <c r="CD34" t="n">
+      <c r="CD34">
         <v>-0.06434086359737856</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:82">
+      <c r="A35" s="2">
         <v>45657</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="inlineStr"/>
-      <c r="BF35" t="inlineStr"/>
-      <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="inlineStr"/>
-      <c r="BI35" t="inlineStr"/>
-      <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
-      <c r="BN35" t="inlineStr"/>
-      <c r="BO35" t="inlineStr"/>
-      <c r="BP35" t="inlineStr"/>
-      <c r="BQ35" t="inlineStr"/>
-      <c r="BR35" t="inlineStr"/>
-      <c r="BS35" t="inlineStr"/>
-      <c r="BT35" t="inlineStr"/>
-      <c r="BU35" t="inlineStr"/>
-      <c r="BV35" t="inlineStr"/>
-      <c r="BW35" t="inlineStr"/>
-      <c r="BX35" t="inlineStr"/>
-      <c r="BY35" t="inlineStr"/>
-      <c r="BZ35" t="inlineStr"/>
-      <c r="CA35" t="inlineStr"/>
-      <c r="CB35" t="inlineStr"/>
-      <c r="CC35" t="n">
+      <c r="CC35">
         <v>-0.2026849798507313</v>
       </c>
-      <c r="CD35" t="n">
+      <c r="CD35">
         <v>-0.2026849798507313</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:82">
+      <c r="A36" s="2">
         <v>46022</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
-      <c r="BF36" t="inlineStr"/>
-      <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="inlineStr"/>
-      <c r="BI36" t="inlineStr"/>
-      <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
-      <c r="BM36" t="inlineStr"/>
-      <c r="BN36" t="inlineStr"/>
-      <c r="BO36" t="inlineStr"/>
-      <c r="BP36" t="inlineStr"/>
-      <c r="BQ36" t="inlineStr"/>
-      <c r="BR36" t="inlineStr"/>
-      <c r="BS36" t="inlineStr"/>
-      <c r="BT36" t="inlineStr"/>
-      <c r="BU36" t="inlineStr"/>
-      <c r="BV36" t="inlineStr"/>
-      <c r="BW36" t="inlineStr"/>
-      <c r="BX36" t="inlineStr"/>
-      <c r="BY36" t="inlineStr"/>
-      <c r="BZ36" t="inlineStr"/>
-      <c r="CA36" t="inlineStr"/>
-      <c r="CB36" t="inlineStr"/>
-      <c r="CC36" t="inlineStr"/>
-      <c r="CD36" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/0_0_Data/2_Processed_Data/1_GDP_series/yoy_rt_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_GDP_series/yoy_rt_GDP_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD36"/>
+  <dimension ref="A1:CE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,18 +633,21 @@
       <c r="CD1" s="2">
         <v>45800</v>
       </c>
+      <c r="CE1" s="2">
+        <v>45891</v>
+      </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:83">
       <c r="A2" s="2">
         <v>33603</v>
       </c>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:83">
       <c r="A3" s="2">
         <v>33969</v>
       </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:83">
       <c r="A4" s="2">
         <v>34334</v>
       </c>
@@ -891,8 +894,11 @@
       <c r="CD4">
         <v>-0.9914767785702105</v>
       </c>
+      <c r="CE4">
+        <v>-0.9947480087648897</v>
+      </c>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:83">
       <c r="A5" s="2">
         <v>34699</v>
       </c>
@@ -1139,8 +1145,11 @@
       <c r="CD5">
         <v>2.656359803232644</v>
       </c>
+      <c r="CE5">
+        <v>2.662919374670691</v>
+      </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:83">
       <c r="A6" s="2">
         <v>35064</v>
       </c>
@@ -1387,8 +1396,11 @@
       <c r="CD6">
         <v>1.577902519167562</v>
       </c>
+      <c r="CE6">
+        <v>1.584368476884657</v>
+      </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:83">
       <c r="A7" s="2">
         <v>35430</v>
       </c>
@@ -1635,8 +1647,11 @@
       <c r="CD7">
         <v>1.06479765474945</v>
       </c>
+      <c r="CE7">
+        <v>1.064474836623286</v>
+      </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:83">
       <c r="A8" s="2">
         <v>35795</v>
       </c>
@@ -1883,8 +1898,11 @@
       <c r="CD8">
         <v>1.937118661020909</v>
       </c>
+      <c r="CE8">
+        <v>1.929871341910561</v>
+      </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:83">
       <c r="A9" s="2">
         <v>36160</v>
       </c>
@@ -2131,8 +2149,11 @@
       <c r="CD9">
         <v>1.883953686138562</v>
       </c>
+      <c r="CE9">
+        <v>1.886792452830188</v>
+      </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:83">
       <c r="A10" s="2">
         <v>36525</v>
       </c>
@@ -2379,8 +2400,11 @@
       <c r="CD10">
         <v>1.983948635634025</v>
       </c>
+      <c r="CE10">
+        <v>1.983439245137664</v>
+      </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:83">
       <c r="A11" s="2">
         <v>36891</v>
       </c>
@@ -2627,8 +2651,11 @@
       <c r="CD11">
         <v>3.110047846889952</v>
       </c>
+      <c r="CE11">
+        <v>3.109264853977867</v>
+      </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:83">
       <c r="A12" s="2">
         <v>37256</v>
       </c>
@@ -2875,8 +2902,11 @@
       <c r="CD12">
         <v>1.749297838563901</v>
       </c>
+      <c r="CE12">
+        <v>1.76718349407885</v>
+      </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:83">
       <c r="A13" s="2">
         <v>37621</v>
       </c>
@@ -3123,8 +3153,11 @@
       <c r="CD13">
         <v>-0.1860241831438181</v>
       </c>
+      <c r="CE13">
+        <v>-0.2039408571514079</v>
+      </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:83">
       <c r="A14" s="2">
         <v>37986</v>
       </c>
@@ -3371,8 +3404,11 @@
       <c r="CD14">
         <v>-0.544082724621997</v>
       </c>
+      <c r="CE14">
+        <v>-0.5379413974455072</v>
+      </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:83">
       <c r="A15" s="2">
         <v>38352</v>
       </c>
@@ -3619,8 +3655,11 @@
       <c r="CD15">
         <v>0.7042253521126751</v>
       </c>
+      <c r="CE15">
+        <v>0.6949480299733857</v>
+      </c>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:83">
       <c r="A16" s="2">
         <v>38717</v>
       </c>
@@ -3858,8 +3897,11 @@
       <c r="CD16">
         <v>1.0474504036736</v>
       </c>
+      <c r="CE16">
+        <v>1.056232371121646</v>
+      </c>
     </row>
-    <row r="17" spans="1:82">
+    <row r="17" spans="1:83">
       <c r="A17" s="2">
         <v>39082</v>
       </c>
@@ -4085,8 +4127,11 @@
       <c r="CD17">
         <v>4.04538434121422</v>
       </c>
+      <c r="CE17">
+        <v>4.038244551339165</v>
+      </c>
     </row>
-    <row r="18" spans="1:82">
+    <row r="18" spans="1:83">
       <c r="A18" s="2">
         <v>39447</v>
       </c>
@@ -4300,8 +4345,11 @@
       <c r="CD18">
         <v>2.991721381672896</v>
       </c>
+      <c r="CE18">
+        <v>2.996746389634097</v>
+      </c>
     </row>
-    <row r="19" spans="1:82">
+    <row r="19" spans="1:83">
       <c r="A19" s="2">
         <v>39813</v>
       </c>
@@ -4503,8 +4551,11 @@
       <c r="CD19">
         <v>0.640279394644927</v>
       </c>
+      <c r="CE19">
+        <v>0.6207049434715062</v>
+      </c>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:83">
       <c r="A20" s="2">
         <v>40178</v>
       </c>
@@ -4694,8 +4745,11 @@
       <c r="CD20">
         <v>-5.494505494505497</v>
       </c>
+      <c r="CE20">
+        <v>-5.499559374311513</v>
+      </c>
     </row>
-    <row r="21" spans="1:82">
+    <row r="21" spans="1:83">
       <c r="A21" s="2">
         <v>40543</v>
       </c>
@@ -4873,8 +4927,11 @@
       <c r="CD21">
         <v>4.007110800256442</v>
       </c>
+      <c r="CE21">
+        <v>4.006994025936161</v>
+      </c>
     </row>
-    <row r="22" spans="1:82">
+    <row r="22" spans="1:83">
       <c r="A22" s="2">
         <v>40908</v>
       </c>
@@ -5040,8 +5097,11 @@
       <c r="CD22">
         <v>3.838717812211079</v>
       </c>
+      <c r="CE22">
+        <v>3.833006444382159</v>
+      </c>
     </row>
-    <row r="23" spans="1:82">
+    <row r="23" spans="1:83">
       <c r="A23" s="2">
         <v>41274</v>
       </c>
@@ -5195,8 +5255,11 @@
       <c r="CD23">
         <v>0.6503143635824271</v>
       </c>
+      <c r="CE23">
+        <v>0.6530303848022223</v>
+      </c>
     </row>
-    <row r="24" spans="1:82">
+    <row r="24" spans="1:83">
       <c r="A24" s="2">
         <v>41639</v>
       </c>
@@ -5338,8 +5401,11 @@
       <c r="CD24">
         <v>0.5067024128686315</v>
       </c>
+      <c r="CE24">
+        <v>0.5093833780160928</v>
+      </c>
     </row>
-    <row r="25" spans="1:82">
+    <row r="25" spans="1:83">
       <c r="A25" s="2">
         <v>42004</v>
       </c>
@@ -5469,8 +5535,11 @@
       <c r="CD25">
         <v>2.168636133265767</v>
       </c>
+      <c r="CE25">
+        <v>2.173913043478271</v>
+      </c>
     </row>
-    <row r="26" spans="1:82">
+    <row r="26" spans="1:83">
       <c r="A26" s="2">
         <v>42369</v>
       </c>
@@ -5588,8 +5657,11 @@
       <c r="CD26">
         <v>1.404626390266794</v>
       </c>
+      <c r="CE26">
+        <v>1.417569507897154</v>
+      </c>
     </row>
-    <row r="27" spans="1:82">
+    <row r="27" spans="1:83">
       <c r="A27" s="2">
         <v>42735</v>
       </c>
@@ -5695,8 +5767,11 @@
       <c r="CD27">
         <v>2.214212152420192</v>
       </c>
+      <c r="CE27">
+        <v>2.136532125205948</v>
+      </c>
     </row>
-    <row r="28" spans="1:82">
+    <row r="28" spans="1:83">
       <c r="A28" s="2">
         <v>43100</v>
       </c>
@@ -5790,8 +5865,11 @@
       <c r="CD28">
         <v>3.002518891687656</v>
       </c>
+      <c r="CE28">
+        <v>3.094914058168263</v>
+      </c>
     </row>
-    <row r="29" spans="1:82">
+    <row r="29" spans="1:83">
       <c r="A29" s="2">
         <v>43465</v>
       </c>
@@ -5873,8 +5951,11 @@
       <c r="CD29">
         <v>1.134696273109648</v>
       </c>
+      <c r="CE29">
+        <v>1.151420329536013</v>
+      </c>
     </row>
-    <row r="30" spans="1:82">
+    <row r="30" spans="1:83">
       <c r="A30" s="2">
         <v>43830</v>
       </c>
@@ -5944,8 +6025,11 @@
       <c r="CD30">
         <v>1.027662249734029</v>
       </c>
+      <c r="CE30">
+        <v>1.01022307078813</v>
+      </c>
     </row>
-    <row r="31" spans="1:82">
+    <row r="31" spans="1:83">
       <c r="A31" s="2">
         <v>44196</v>
       </c>
@@ -6003,8 +6087,11 @@
       <c r="CD31">
         <v>-4.456571168713019</v>
       </c>
+      <c r="CE31">
+        <v>-4.486182557722218</v>
+      </c>
     </row>
-    <row r="32" spans="1:82">
+    <row r="32" spans="1:83">
       <c r="A32" s="2">
         <v>44561</v>
       </c>
@@ -6050,8 +6137,11 @@
       <c r="CD32">
         <v>3.624840301610766</v>
       </c>
+      <c r="CE32">
+        <v>3.865230460921842</v>
+      </c>
     </row>
-    <row r="33" spans="1:82">
+    <row r="33" spans="1:83">
       <c r="A33" s="2">
         <v>44926</v>
       </c>
@@ -6085,8 +6175,11 @@
       <c r="CD33">
         <v>1.445631678189807</v>
       </c>
+      <c r="CE33">
+        <v>1.886018860188643</v>
+      </c>
     </row>
-    <row r="34" spans="1:82">
+    <row r="34" spans="1:83">
       <c r="A34" s="2">
         <v>45291</v>
       </c>
@@ -6108,8 +6201,11 @@
       <c r="CD34">
         <v>-0.06434086359737856</v>
       </c>
+      <c r="CE34">
+        <v>-0.6770031956444544</v>
+      </c>
     </row>
-    <row r="35" spans="1:82">
+    <row r="35" spans="1:83">
       <c r="A35" s="2">
         <v>45657</v>
       </c>
@@ -6119,8 +6215,11 @@
       <c r="CD35">
         <v>-0.2026849798507313</v>
       </c>
+      <c r="CE35">
+        <v>-0.4695059462808904</v>
+      </c>
     </row>
-    <row r="36" spans="1:82">
+    <row r="36" spans="1:83">
       <c r="A36" s="2">
         <v>46022</v>
       </c>
